--- a/df_seas.xlsx
+++ b/df_seas.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,32 +372,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gdp_pc_s</t>
+          <t>log_gdp_pc</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gov_gdp_s</t>
+          <t>gov_gdp</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gov_con_gdp_s</t>
+          <t>gov_con_gdp</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pub_inv_gdp_s</t>
+          <t>pub_inv_gdp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>priv_inv_gdp_s</t>
+          <t>priv_inv_gdp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>tr_op_s</t>
+          <t>tr_op</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -405,36 +405,28 @@
           <t>growth_gdp_pc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>log_gdp_pc_s</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>38718</v>
       </c>
       <c r="B2">
-        <v>5021.82304713201</v>
+        <v>8.56450344290489</v>
       </c>
       <c r="C2">
-        <v>0.184517050054834</v>
+        <v>0.181181767057434</v>
       </c>
       <c r="D2">
-        <v>0.141951084227571</v>
+        <v>0.136108739242689</v>
       </c>
       <c r="E2">
-        <v>0.046123238634905</v>
+        <v>0.0450624794753386</v>
       </c>
       <c r="F2">
-        <v>0.194728129288129</v>
+        <v>0.179914242759861</v>
       </c>
       <c r="G2">
-        <v>0.858420498779998</v>
-      </c>
-      <c r="I2">
-        <v>8.521548303559509</v>
+        <v>0.822391410498332</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +434,25 @@
         <v>38808</v>
       </c>
       <c r="B3">
-        <v>5127.11919363535</v>
+        <v>8.557949888313351</v>
       </c>
       <c r="C3">
-        <v>0.197062947687541</v>
+        <v>0.195656093908528</v>
       </c>
       <c r="D3">
-        <v>0.161161600104641</v>
+        <v>0.160621383619518</v>
       </c>
       <c r="E3">
-        <v>0.0387820089912176</v>
+        <v>0.0384324054770323</v>
       </c>
       <c r="F3">
-        <v>0.194790850817161</v>
+        <v>0.197685631490761</v>
       </c>
       <c r="G3">
-        <v>0.874612601366939</v>
+        <v>0.86728604073086</v>
       </c>
       <c r="H3">
-        <v>0.0216166977141896</v>
-      </c>
-      <c r="I3">
-        <v>8.542299219735691</v>
+        <v>-0.000538598423895812</v>
       </c>
     </row>
     <row r="4">
@@ -471,28 +460,25 @@
         <v>38899</v>
       </c>
       <c r="B4">
-        <v>5237.49097669432</v>
+        <v>8.566448411355861</v>
       </c>
       <c r="C4">
-        <v>0.183947231692355</v>
+        <v>0.184622488224596</v>
       </c>
       <c r="D4">
-        <v>0.145995178811564</v>
+        <v>0.14554984592595</v>
       </c>
       <c r="E4">
-        <v>0.0381780442889984</v>
+        <v>0.038311578033145</v>
       </c>
       <c r="F4">
-        <v>0.214311819436043</v>
+        <v>0.213838790790676</v>
       </c>
       <c r="G4">
-        <v>0.881463437053744</v>
+        <v>0.891163775117892</v>
       </c>
       <c r="H4">
-        <v>0.0219893002760553</v>
-      </c>
-      <c r="I4">
-        <v>8.563597841402048</v>
+        <v>0.000942614877870655</v>
       </c>
     </row>
     <row r="5">
@@ -500,28 +486,25 @@
         <v>38991</v>
       </c>
       <c r="B5">
-        <v>5432.71196530484</v>
+        <v>8.57890678510025</v>
       </c>
       <c r="C5">
-        <v>0.19756111313886</v>
+        <v>0.201065797224841</v>
       </c>
       <c r="D5">
-        <v>0.151812221361642</v>
+        <v>0.158423647601464</v>
       </c>
       <c r="E5">
-        <v>0.0399648154207841</v>
+        <v>0.0408362572901294</v>
       </c>
       <c r="F5">
-        <v>0.205179024619174</v>
+        <v>0.217378843505345</v>
       </c>
       <c r="G5">
-        <v>0.887650473391231</v>
+        <v>0.924390898449648</v>
       </c>
       <c r="H5">
-        <v>0.0378251306348631</v>
-      </c>
-      <c r="I5">
-        <v>8.600193729373053</v>
+        <v>0.00132610982239684</v>
       </c>
     </row>
     <row r="6">
@@ -529,28 +512,25 @@
         <v>39083</v>
       </c>
       <c r="B6">
-        <v>5629.59539741614</v>
+        <v>8.58620767533324</v>
       </c>
       <c r="C6">
-        <v>0.17270166911908</v>
+        <v>0.18480240730912</v>
       </c>
       <c r="D6">
-        <v>0.141091406312828</v>
+        <v>0.148083563633919</v>
       </c>
       <c r="E6">
-        <v>0.0320930047497622</v>
+        <v>0.0342147673695723</v>
       </c>
       <c r="F6">
-        <v>0.207118294676667</v>
+        <v>0.219996257706038</v>
       </c>
       <c r="G6">
-        <v>0.890763149171657</v>
+        <v>0.93407061923632</v>
       </c>
       <c r="H6">
-        <v>0.0362953351648485</v>
-      </c>
-      <c r="I6">
-        <v>8.635792853083464</v>
+        <v>0.000838982040597775</v>
       </c>
     </row>
     <row r="7">
@@ -558,28 +538,25 @@
         <v>39173</v>
       </c>
       <c r="B7">
-        <v>5833.37998332953</v>
+        <v>8.59042512921523</v>
       </c>
       <c r="C7">
-        <v>0.167740021897189</v>
+        <v>0.182618911748926</v>
       </c>
       <c r="D7">
-        <v>0.131917982386124</v>
+        <v>0.143554529844185</v>
       </c>
       <c r="E7">
-        <v>0.0389448875105523</v>
+        <v>0.0422913800662724</v>
       </c>
       <c r="F7">
-        <v>0.235847990360969</v>
+        <v>0.252580569713824</v>
       </c>
       <c r="G7">
-        <v>0.904967041128522</v>
+        <v>0.973898547852693</v>
       </c>
       <c r="H7">
-        <v>0.0365754182349294</v>
-      </c>
-      <c r="I7">
-        <v>8.671351868353725</v>
+        <v>0.000738007689144305</v>
       </c>
     </row>
     <row r="8">
@@ -587,28 +564,25 @@
         <v>39264</v>
       </c>
       <c r="B8">
-        <v>5948.75632477628</v>
+        <v>8.60297690327986</v>
       </c>
       <c r="C8">
-        <v>0.179833812656699</v>
+        <v>0.196876162661975</v>
       </c>
       <c r="D8">
-        <v>0.136524494584049</v>
+        <v>0.14930421488643</v>
       </c>
       <c r="E8">
-        <v>0.0428653252683265</v>
+        <v>0.0469144354190414</v>
       </c>
       <c r="F8">
-        <v>0.208582711314326</v>
+        <v>0.227199043591571</v>
       </c>
       <c r="G8">
-        <v>0.938786690577082</v>
+        <v>1.03515368727665</v>
       </c>
       <c r="H8">
-        <v>0.0203004538887566</v>
-      </c>
-      <c r="I8">
-        <v>8.690937455645729</v>
+        <v>0.0014034533958554</v>
       </c>
     </row>
     <row r="9">
@@ -616,28 +590,25 @@
         <v>39356</v>
       </c>
       <c r="B9">
-        <v>6326.98749168603</v>
+        <v>8.626776227752</v>
       </c>
       <c r="C9">
-        <v>0.202365921366708</v>
+        <v>0.228254015347995</v>
       </c>
       <c r="D9">
-        <v>0.144146996452095</v>
+        <v>0.165799494739472</v>
       </c>
       <c r="E9">
-        <v>0.0524844264512394</v>
+        <v>0.0593930395437451</v>
       </c>
       <c r="F9">
-        <v>0.198471020307094</v>
+        <v>0.231305186166986</v>
       </c>
       <c r="G9">
-        <v>0.982831658846399</v>
+        <v>1.13213996380781</v>
       </c>
       <c r="H9">
-        <v>0.06502840298839289</v>
-      </c>
-      <c r="I9">
-        <v>8.752579492171014</v>
+        <v>0.00262337860397792</v>
       </c>
     </row>
     <row r="10">
@@ -645,28 +616,25 @@
         <v>39448</v>
       </c>
       <c r="B10">
-        <v>6669.56802314843</v>
+        <v>8.62829057266776</v>
       </c>
       <c r="C10">
-        <v>0.159744621990421</v>
+        <v>0.192962908935343</v>
       </c>
       <c r="D10">
-        <v>0.130480869866444</v>
+        <v>0.155951909508549</v>
       </c>
       <c r="E10">
-        <v>0.0417215316568215</v>
+        <v>0.050266232375448</v>
       </c>
       <c r="F10">
-        <v>0.236713635916459</v>
+        <v>0.292837661877072</v>
       </c>
       <c r="G10">
-        <v>1.00637388649193</v>
+        <v>1.20740350501862</v>
       </c>
       <c r="H10">
-        <v>0.053588717351798</v>
-      </c>
-      <c r="I10">
-        <v>8.805310372666719</v>
+        <v>0.000173160975072345</v>
       </c>
     </row>
     <row r="11">
@@ -674,28 +642,25 @@
         <v>39539</v>
       </c>
       <c r="B11">
-        <v>7188.80675853079</v>
+        <v>8.648333987203049</v>
       </c>
       <c r="C11">
-        <v>0.200650360937866</v>
+        <v>0.252913048133586</v>
       </c>
       <c r="D11">
-        <v>0.137554490933274</v>
+        <v>0.172307496333425</v>
       </c>
       <c r="E11">
-        <v>0.05338266694025</v>
+        <v>0.0671334742682048</v>
       </c>
       <c r="F11">
-        <v>0.231713034072242</v>
+        <v>0.28081858304326</v>
       </c>
       <c r="G11">
-        <v>0.991847833372043</v>
+        <v>1.24675602495409</v>
       </c>
       <c r="H11">
-        <v>0.07745472204397991</v>
-      </c>
-      <c r="I11">
-        <v>8.880280478462737</v>
+        <v>0.00259632350271207</v>
       </c>
     </row>
     <row r="12">
@@ -703,28 +668,25 @@
         <v>39630</v>
       </c>
       <c r="B12">
-        <v>7336.40721267113</v>
+        <v>8.62670181541832</v>
       </c>
       <c r="C12">
-        <v>0.20659343415872</v>
+        <v>0.271195405581696</v>
       </c>
       <c r="D12">
-        <v>0.146432510524429</v>
+        <v>0.192688948048283</v>
       </c>
       <c r="E12">
-        <v>0.0596432893905136</v>
+        <v>0.07826329672859229</v>
       </c>
       <c r="F12">
-        <v>0.204163713359102</v>
+        <v>0.267285731708369</v>
       </c>
       <c r="G12">
-        <v>0.958830616864302</v>
+        <v>1.27138557428641</v>
       </c>
       <c r="H12">
-        <v>0.0210489642713875</v>
-      </c>
-      <c r="I12">
-        <v>8.900604521211328</v>
+        <v>-0.00257323137232072</v>
       </c>
     </row>
     <row r="13">
@@ -732,28 +694,25 @@
         <v>39722</v>
       </c>
       <c r="B13">
-        <v>7063.06061682308</v>
+        <v>8.584309382763991</v>
       </c>
       <c r="C13">
-        <v>0.189680137525943</v>
+        <v>0.248954167073632</v>
       </c>
       <c r="D13">
-        <v>0.137218697453132</v>
+        <v>0.181565109415511</v>
       </c>
       <c r="E13">
-        <v>0.0498605119225244</v>
+        <v>0.0655600959157393</v>
       </c>
       <c r="F13">
-        <v>0.201339700429427</v>
+        <v>0.270060855242285</v>
       </c>
       <c r="G13">
-        <v>0.899524553914741</v>
+        <v>1.18087926704969</v>
       </c>
       <c r="H13">
-        <v>-0.0393769794060647</v>
-      </c>
-      <c r="I13">
-        <v>8.8626337516775</v>
+        <v>-0.00512198022561168</v>
       </c>
     </row>
     <row r="14">
@@ -761,28 +720,25 @@
         <v>39814</v>
       </c>
       <c r="B14">
-        <v>7001.43530904101</v>
+        <v>8.56022940856613</v>
       </c>
       <c r="C14">
-        <v>0.201629933195336</v>
+        <v>0.271577331621696</v>
       </c>
       <c r="D14">
-        <v>0.144806870080211</v>
+        <v>0.19366699008764</v>
       </c>
       <c r="E14">
-        <v>0.0562361366791041</v>
+        <v>0.0756561508616415</v>
       </c>
       <c r="F14">
-        <v>0.161034802389744</v>
+        <v>0.211327421147444</v>
       </c>
       <c r="G14">
-        <v>0.858081230384935</v>
+        <v>1.14727492441103</v>
       </c>
       <c r="H14">
-        <v>-0.00715223925975874</v>
-      </c>
-      <c r="I14">
-        <v>8.853870451167488</v>
+        <v>-0.00277729183055899</v>
       </c>
     </row>
     <row r="15">
@@ -790,28 +746,25 @@
         <v>39904</v>
       </c>
       <c r="B15">
-        <v>7078.86373308906</v>
+        <v>8.569899293664051</v>
       </c>
       <c r="C15">
-        <v>0.203802899875026</v>
+        <v>0.272457683028724</v>
       </c>
       <c r="D15">
-        <v>0.148334321547939</v>
+        <v>0.198188391988685</v>
       </c>
       <c r="E15">
-        <v>0.0584625201379456</v>
+        <v>0.0779789458227501</v>
       </c>
       <c r="F15">
-        <v>0.147473429117783</v>
+        <v>0.198442771498804</v>
       </c>
       <c r="G15">
-        <v>0.845925908101412</v>
+        <v>1.136098232118</v>
       </c>
       <c r="H15">
-        <v>0.0118196441271188</v>
-      </c>
-      <c r="I15">
-        <v>8.864868684131233</v>
+        <v>0.00139590725170008</v>
       </c>
     </row>
     <row r="16">
@@ -819,28 +772,25 @@
         <v>39995</v>
       </c>
       <c r="B16">
-        <v>7248.38490456612</v>
+        <v>8.58192191640269</v>
       </c>
       <c r="C16">
-        <v>0.203829780140427</v>
+        <v>0.275601692484535</v>
       </c>
       <c r="D16">
-        <v>0.145080612138361</v>
+        <v>0.196493923782282</v>
       </c>
       <c r="E16">
-        <v>0.0584563928446063</v>
+        <v>0.0790474429702272</v>
       </c>
       <c r="F16">
-        <v>0.13457772933705</v>
+        <v>0.181280333983084</v>
       </c>
       <c r="G16">
-        <v>0.8686816592122381</v>
+        <v>1.17716357302944</v>
       </c>
       <c r="H16">
-        <v>0.0245744222499569</v>
-      </c>
-      <c r="I16">
-        <v>8.888533951247418</v>
+        <v>0.00134648660733285</v>
       </c>
     </row>
     <row r="17">
@@ -848,28 +798,25 @@
         <v>40087</v>
       </c>
       <c r="B17">
-        <v>7341.86288964365</v>
+        <v>8.58102341555065</v>
       </c>
       <c r="C17">
-        <v>0.202278712496575</v>
+        <v>0.276314741785059</v>
       </c>
       <c r="D17">
-        <v>0.14217713191668</v>
+        <v>0.194493538419296</v>
       </c>
       <c r="E17">
-        <v>0.0584703689704318</v>
+        <v>0.07988098342053319</v>
       </c>
       <c r="F17">
-        <v>0.137873967712687</v>
+        <v>0.193836922181276</v>
       </c>
       <c r="G17">
-        <v>0.909470974086832</v>
+        <v>1.24144522712662</v>
       </c>
       <c r="H17">
-        <v>0.0126299818418302</v>
-      </c>
-      <c r="I17">
-        <v>8.901347889085843</v>
+        <v>-0.0002808716670872</v>
       </c>
     </row>
     <row r="18">
@@ -877,28 +824,25 @@
         <v>40179</v>
       </c>
       <c r="B18">
-        <v>7504.14012732546</v>
+        <v>8.58151648629419</v>
       </c>
       <c r="C18">
-        <v>0.20185582213458</v>
+        <v>0.28327761293207</v>
       </c>
       <c r="D18">
-        <v>0.151671204357154</v>
+        <v>0.213103718654174</v>
       </c>
       <c r="E18">
-        <v>0.0456551271754059</v>
+        <v>0.0640556165413123</v>
       </c>
       <c r="F18">
-        <v>0.143783534602943</v>
+        <v>0.205977891752494</v>
       </c>
       <c r="G18">
-        <v>0.961007336924125</v>
+        <v>1.3400504486123</v>
       </c>
       <c r="H18">
-        <v>0.0225451089692111</v>
-      </c>
-      <c r="I18">
-        <v>8.923210164195806</v>
+        <v>9.765492223064769e-005</v>
       </c>
     </row>
     <row r="19">
@@ -906,28 +850,25 @@
         <v>40269</v>
       </c>
       <c r="B19">
-        <v>7566.20770749057</v>
+        <v>8.589877061062561</v>
       </c>
       <c r="C19">
-        <v>0.18593529452366</v>
+        <v>0.259323405364645</v>
       </c>
       <c r="D19">
-        <v>0.135761843017115</v>
+        <v>0.188779332282978</v>
       </c>
       <c r="E19">
-        <v>0.0534364245805225</v>
+        <v>0.07433911129948791</v>
       </c>
       <c r="F19">
-        <v>0.149529571135477</v>
+        <v>0.200742039137893</v>
       </c>
       <c r="G19">
-        <v>1.00599066510769</v>
+        <v>1.43818699239169</v>
       </c>
       <c r="H19">
-        <v>0.00911821861148523</v>
-      </c>
-      <c r="I19">
-        <v>8.931447257564049</v>
+        <v>0.00119328669415882</v>
       </c>
     </row>
     <row r="20">
@@ -935,28 +876,25 @@
         <v>40360</v>
       </c>
       <c r="B20">
-        <v>7954.03348221542</v>
+        <v>8.61451897848967</v>
       </c>
       <c r="C20">
-        <v>0.183036959496949</v>
+        <v>0.262006421689279</v>
       </c>
       <c r="D20">
-        <v>0.134283609689618</v>
+        <v>0.192666070242917</v>
       </c>
       <c r="E20">
-        <v>0.0479660356678892</v>
+        <v>0.0687298294532831</v>
       </c>
       <c r="F20">
-        <v>0.167409031479634</v>
+        <v>0.238699175298044</v>
       </c>
       <c r="G20">
-        <v>1.01716756643235</v>
+        <v>1.46212678477507</v>
       </c>
       <c r="H20">
-        <v>0.0523873315922384</v>
-      </c>
-      <c r="I20">
-        <v>8.981434435240223</v>
+        <v>0.00279697856853775</v>
       </c>
     </row>
     <row r="21">
@@ -964,28 +902,25 @@
         <v>40452</v>
       </c>
       <c r="B21">
-        <v>8403.23100346799</v>
+        <v>8.62049012834818</v>
       </c>
       <c r="C21">
-        <v>0.19605814941654</v>
+        <v>0.293974631328065</v>
       </c>
       <c r="D21">
-        <v>0.139572992069893</v>
+        <v>0.208929132561598</v>
       </c>
       <c r="E21">
-        <v>0.0562484031859931</v>
+        <v>0.0842585023624312</v>
       </c>
       <c r="F21">
-        <v>0.175933079097376</v>
+        <v>0.267852969644671</v>
       </c>
       <c r="G21">
-        <v>1.03564983552127</v>
+        <v>1.50817765124374</v>
       </c>
       <c r="H21">
-        <v>0.0578407898493942</v>
-      </c>
-      <c r="I21">
-        <v>9.036371554145145</v>
+        <v>0.000551025869287663</v>
       </c>
     </row>
     <row r="22">
@@ -993,28 +928,25 @@
         <v>40544</v>
       </c>
       <c r="B22">
-        <v>8366.401959729839</v>
+        <v>8.621034446382099</v>
       </c>
       <c r="C22">
-        <v>0.196532789509718</v>
+        <v>0.293887129026329</v>
       </c>
       <c r="D22">
-        <v>0.13157775688366</v>
+        <v>0.197582395164999</v>
       </c>
       <c r="E22">
-        <v>0.0617519805050823</v>
+        <v>0.0923333545234943</v>
       </c>
       <c r="F22">
-        <v>0.187032966600445</v>
+        <v>0.270959326782016</v>
       </c>
       <c r="G22">
-        <v>1.18487574042165</v>
+        <v>1.78744303911043</v>
       </c>
       <c r="H22">
-        <v>-0.00273262330057546</v>
-      </c>
-      <c r="I22">
-        <v>9.031979197671962</v>
+        <v>0.000158695773442248</v>
       </c>
     </row>
     <row r="23">
@@ -1022,28 +954,25 @@
         <v>40634</v>
       </c>
       <c r="B23">
-        <v>9151.29917404337</v>
+        <v>8.650068721508591</v>
       </c>
       <c r="C23">
-        <v>0.193969312041799</v>
+        <v>0.306499730145325</v>
       </c>
       <c r="D23">
-        <v>0.14556467451571</v>
+        <v>0.229257462880748</v>
       </c>
       <c r="E23">
-        <v>0.0525197162425199</v>
+        <v>0.0827685168574572</v>
       </c>
       <c r="F23">
-        <v>0.182277536706731</v>
+        <v>0.295636230543374</v>
       </c>
       <c r="G23">
-        <v>1.07921117274991</v>
+        <v>1.75416766752462</v>
       </c>
       <c r="H23">
-        <v>0.0926005592904775</v>
-      </c>
-      <c r="I23">
-        <v>9.121651134424724</v>
+        <v>0.00352347806859449</v>
       </c>
     </row>
     <row r="24">
@@ -1051,28 +980,25 @@
         <v>40725</v>
       </c>
       <c r="B24">
-        <v>9358.924427917569</v>
+        <v>8.67084137577579</v>
       </c>
       <c r="C24">
-        <v>0.196881495231219</v>
+        <v>0.312118841828465</v>
       </c>
       <c r="D24">
-        <v>0.142896654761691</v>
+        <v>0.227448128608609</v>
       </c>
       <c r="E24">
-        <v>0.0528696234322348</v>
+        <v>0.0839545465325391</v>
       </c>
       <c r="F24">
-        <v>0.196093482536296</v>
+        <v>0.309957929254185</v>
       </c>
       <c r="G24">
-        <v>1.10724014224103</v>
+        <v>1.74312006993062</v>
       </c>
       <c r="H24">
-        <v>0.0234659321299315</v>
-      </c>
-      <c r="I24">
-        <v>9.144085651321532</v>
+        <v>0.00228146525481246</v>
       </c>
     </row>
     <row r="25">
@@ -1080,28 +1006,25 @@
         <v>40817</v>
       </c>
       <c r="B25">
-        <v>9584.77099853545</v>
+        <v>8.65241101143684</v>
       </c>
       <c r="C25">
-        <v>0.172931372550967</v>
+        <v>0.286072379874935</v>
       </c>
       <c r="D25">
-        <v>0.126873285592816</v>
+        <v>0.208021283817838</v>
       </c>
       <c r="E25">
-        <v>0.0480138131591396</v>
+        <v>0.0793290249855837</v>
       </c>
       <c r="F25">
-        <v>0.205867293499116</v>
+        <v>0.342414177433517</v>
       </c>
       <c r="G25">
-        <v>1.12898504208324</v>
+        <v>1.81822937430341</v>
       </c>
       <c r="H25">
-        <v>0.0244311287205927</v>
-      </c>
-      <c r="I25">
-        <v>9.167930763544408</v>
+        <v>-0.00222134216618772</v>
       </c>
     </row>
     <row r="26">
@@ -1109,28 +1032,25 @@
         <v>40909</v>
       </c>
       <c r="B26">
-        <v>9952.182221254359</v>
+        <v>8.694395390928079</v>
       </c>
       <c r="C26">
-        <v>0.211831189033206</v>
+        <v>0.348065060286907</v>
       </c>
       <c r="D26">
-        <v>0.147741914695546</v>
+        <v>0.245660860935806</v>
       </c>
       <c r="E26">
-        <v>0.0565964838708549</v>
+        <v>0.0929959884260322</v>
       </c>
       <c r="F26">
-        <v>0.218704620104596</v>
+        <v>0.361458842458679</v>
       </c>
       <c r="G26">
-        <v>1.16033643017181</v>
+        <v>1.90822238089338</v>
       </c>
       <c r="H26">
-        <v>0.038236321709769</v>
-      </c>
-      <c r="I26">
-        <v>9.205547124824836</v>
+        <v>0.00497241086245308</v>
       </c>
     </row>
     <row r="27">
@@ -1138,28 +1058,25 @@
         <v>41000</v>
       </c>
       <c r="B27">
-        <v>9943.802471862229</v>
+        <v>8.68066570632816</v>
       </c>
       <c r="C27">
-        <v>0.166637442479122</v>
+        <v>0.276132346370034</v>
       </c>
       <c r="D27">
-        <v>0.11791670514138</v>
+        <v>0.194095760225012</v>
       </c>
       <c r="E27">
-        <v>0.0524861505607058</v>
+        <v>0.08671834038159459</v>
       </c>
       <c r="F27">
-        <v>0.229612066033915</v>
+        <v>0.379585574048133</v>
       </c>
       <c r="G27">
-        <v>1.16278671975932</v>
+        <v>1.95892083552276</v>
       </c>
       <c r="H27">
-        <v>9.09743307821141e-05</v>
-      </c>
-      <c r="I27">
-        <v>9.204704768940783</v>
+        <v>-0.00148587199800764</v>
       </c>
     </row>
     <row r="28">
@@ -1167,28 +1084,25 @@
         <v>41091</v>
       </c>
       <c r="B28">
-        <v>10250.744913567</v>
+        <v>8.694029676135999</v>
       </c>
       <c r="C28">
-        <v>0.183822539580275</v>
+        <v>0.310522735032399</v>
       </c>
       <c r="D28">
-        <v>0.13459612205923</v>
+        <v>0.228351220523485</v>
       </c>
       <c r="E28">
-        <v>0.0478899997998326</v>
+        <v>0.0809974492659868</v>
       </c>
       <c r="F28">
-        <v>0.225112870147299</v>
+        <v>0.379438487733873</v>
       </c>
       <c r="G28">
-        <v>1.13652300489782</v>
+        <v>1.93177913758307</v>
       </c>
       <c r="H28">
-        <v>0.0316741560588898</v>
-      </c>
-      <c r="I28">
-        <v>9.235105656420233</v>
+        <v>0.00135134910168073</v>
       </c>
     </row>
     <row r="29">
@@ -1196,28 +1110,25 @@
         <v>41183</v>
       </c>
       <c r="B29">
-        <v>10682.5679786783</v>
+        <v>8.71930463673073</v>
       </c>
       <c r="C29">
-        <v>0.196061960116672</v>
+        <v>0.337862276642042</v>
       </c>
       <c r="D29">
-        <v>0.136806419039909</v>
+        <v>0.234232849864257</v>
       </c>
       <c r="E29">
-        <v>0.0609822984183462</v>
+        <v>0.10506947482321</v>
       </c>
       <c r="F29">
-        <v>0.228498183712821</v>
+        <v>0.393639354202817</v>
       </c>
       <c r="G29">
-        <v>1.11952949716842</v>
+        <v>1.93643622596952</v>
       </c>
       <c r="H29">
-        <v>0.0430962120876668</v>
-      </c>
-      <c r="I29">
-        <v>9.276368531053121</v>
+        <v>0.00292721320905033</v>
       </c>
     </row>
     <row r="30">
@@ -1225,28 +1136,25 @@
         <v>41275</v>
       </c>
       <c r="B30">
-        <v>10730.9123925608</v>
+        <v>8.713600823696639</v>
       </c>
       <c r="C30">
-        <v>0.191249417644259</v>
+        <v>0.330818639488297</v>
       </c>
       <c r="D30">
-        <v>0.131953457388884</v>
+        <v>0.231042886610778</v>
       </c>
       <c r="E30">
-        <v>0.06579676552284069</v>
+        <v>0.113752613978594</v>
       </c>
       <c r="F30">
-        <v>0.217563280668463</v>
+        <v>0.38712897024006</v>
       </c>
       <c r="G30">
-        <v>1.09689252479927</v>
+        <v>1.8664124891229</v>
       </c>
       <c r="H30">
-        <v>0.00581709881234245</v>
-      </c>
-      <c r="I30">
-        <v>9.280883863935252</v>
+        <v>-0.000462275975288892</v>
       </c>
     </row>
     <row r="31">
@@ -1254,28 +1162,25 @@
         <v>41365</v>
       </c>
       <c r="B31">
-        <v>11198.3552745648</v>
+        <v>8.736803506261101</v>
       </c>
       <c r="C31">
-        <v>0.212030493126022</v>
+        <v>0.371942573150478</v>
       </c>
       <c r="D31">
-        <v>0.137653317877503</v>
+        <v>0.240028169020552</v>
       </c>
       <c r="E31">
-        <v>0.0652396167555596</v>
+        <v>0.114159060786414</v>
       </c>
       <c r="F31">
-        <v>0.228225031552822</v>
+        <v>0.392616745737621</v>
       </c>
       <c r="G31">
-        <v>1.0902535929834</v>
+        <v>1.90595647467098</v>
       </c>
       <c r="H31">
-        <v>0.0431851358104982</v>
-      </c>
-      <c r="I31">
-        <v>9.323522196014311</v>
+        <v>0.00269533345398633</v>
       </c>
     </row>
     <row r="32">
@@ -1283,28 +1188,25 @@
         <v>41456</v>
       </c>
       <c r="B32">
-        <v>11249.855106899</v>
+        <v>8.740403135925559</v>
       </c>
       <c r="C32">
-        <v>0.202223939453393</v>
+        <v>0.356819882154275</v>
       </c>
       <c r="D32">
-        <v>0.138093345195574</v>
+        <v>0.244000509312267</v>
       </c>
       <c r="E32">
-        <v>0.0647517186884842</v>
+        <v>0.114240307642491</v>
       </c>
       <c r="F32">
-        <v>0.235394668755879</v>
+        <v>0.414827844665688</v>
       </c>
       <c r="G32">
-        <v>1.11772281056994</v>
+        <v>2.00163621834205</v>
       </c>
       <c r="H32">
-        <v>0.00499018506535632</v>
-      </c>
-      <c r="I32">
-        <v>9.32811052816287</v>
+        <v>0.000149626497449165</v>
       </c>
     </row>
     <row r="33">
@@ -1312,28 +1214,25 @@
         <v>41548</v>
       </c>
       <c r="B33">
-        <v>11091.8152907596</v>
+        <v>8.736937936522621</v>
       </c>
       <c r="C33">
-        <v>0.188671755943041</v>
+        <v>0.331903091388485</v>
       </c>
       <c r="D33">
-        <v>0.142069187697098</v>
+        <v>0.248098323899441</v>
       </c>
       <c r="E33">
-        <v>0.0500914915926097</v>
+        <v>0.08817868652983631</v>
       </c>
       <c r="F33">
-        <v>0.212058206929149</v>
+        <v>0.371713386285493</v>
       </c>
       <c r="G33">
-        <v>1.11577891915432</v>
+        <v>1.99729373325311</v>
       </c>
       <c r="H33">
-        <v>-0.0150419271206535</v>
-      </c>
-      <c r="I33">
-        <v>9.313962754123123</v>
+        <v>-0.00029821832146643</v>
       </c>
     </row>
     <row r="34">
@@ -1341,28 +1240,25 @@
         <v>41640</v>
       </c>
       <c r="B34">
-        <v>11949.6906522905</v>
+        <v>8.75401054776748</v>
       </c>
       <c r="C34">
-        <v>0.20833921900223</v>
+        <v>0.384270780046191</v>
       </c>
       <c r="D34">
-        <v>0.13646268160326</v>
+        <v>0.253118314906148</v>
       </c>
       <c r="E34">
-        <v>0.0655178348912963</v>
+        <v>0.120867556563084</v>
       </c>
       <c r="F34">
-        <v>0.208072206416954</v>
+        <v>0.377429425117125</v>
       </c>
       <c r="G34">
-        <v>1.09823683054076</v>
+        <v>2.01431348351084</v>
       </c>
       <c r="H34">
-        <v>0.0760310249080335</v>
-      </c>
-      <c r="I34">
-        <v>9.388460670186971</v>
+        <v>0.0021583867663361</v>
       </c>
     </row>
     <row r="35">
@@ -1370,28 +1266,25 @@
         <v>41730</v>
       </c>
       <c r="B35">
-        <v>12205.1548810797</v>
+        <v>8.76300847300476</v>
       </c>
       <c r="C35">
-        <v>0.217503724381641</v>
+        <v>0.403365932923836</v>
       </c>
       <c r="D35">
-        <v>0.159654095666839</v>
+        <v>0.297267851150085</v>
       </c>
       <c r="E35">
-        <v>0.0616391490148136</v>
+        <v>0.114020110444603</v>
       </c>
       <c r="F35">
-        <v>0.201439997345445</v>
+        <v>0.384030996421706</v>
       </c>
       <c r="G35">
-        <v>1.08291337845666</v>
+        <v>1.99004378386666</v>
       </c>
       <c r="H35">
-        <v>0.0216262358988708</v>
-      </c>
-      <c r="I35">
-        <v>9.409613672716203</v>
+        <v>0.00100383008667319</v>
       </c>
     </row>
     <row r="36">
@@ -1399,28 +1292,25 @@
         <v>41821</v>
       </c>
       <c r="B36">
-        <v>12691.2467826209</v>
+        <v>8.76384158080981</v>
       </c>
       <c r="C36">
-        <v>0.198970838635688</v>
+        <v>0.385682646615064</v>
       </c>
       <c r="D36">
-        <v>0.141985146430709</v>
+        <v>0.274868750589874</v>
       </c>
       <c r="E36">
-        <v>0.0570811709858597</v>
+        <v>0.110491068913519</v>
       </c>
       <c r="F36">
-        <v>0.197849561162392</v>
+        <v>0.383607259157017</v>
       </c>
       <c r="G36">
-        <v>1.05315927040645</v>
+        <v>2.03318219822106</v>
       </c>
       <c r="H36">
-        <v>0.0408436193307004</v>
-      </c>
-      <c r="I36">
-        <v>9.448667805103799</v>
+        <v>-0.000231611881377265</v>
       </c>
     </row>
     <row r="37">
@@ -1428,28 +1318,25 @@
         <v>41913</v>
       </c>
       <c r="B37">
-        <v>12888.1948869424</v>
+        <v>8.781359092859679</v>
       </c>
       <c r="C37">
-        <v>0.190035016368058</v>
+        <v>0.371162327813337</v>
       </c>
       <c r="D37">
-        <v>0.136207361345149</v>
+        <v>0.263064217506447</v>
       </c>
       <c r="E37">
-        <v>0.0576039768525903</v>
+        <v>0.112550128603979</v>
       </c>
       <c r="F37">
-        <v>0.242764928277101</v>
+        <v>0.469623880194909</v>
       </c>
       <c r="G37">
-        <v>1.04302608511622</v>
+        <v>2.07114500670732</v>
       </c>
       <c r="H37">
-        <v>0.0157086023541335</v>
-      </c>
-      <c r="I37">
-        <v>9.464067046323983</v>
+        <v>0.00220579111655105</v>
       </c>
     </row>
     <row r="38">
@@ -1457,28 +1344,25 @@
         <v>42005</v>
       </c>
       <c r="B38">
-        <v>13273.621216042</v>
+        <v>8.78582039092977</v>
       </c>
       <c r="C38">
-        <v>0.230913447046984</v>
+        <v>0.457324581778309</v>
       </c>
       <c r="D38">
-        <v>0.154435440948991</v>
+        <v>0.309653685362872</v>
       </c>
       <c r="E38">
-        <v>0.06706613833602</v>
+        <v>0.133102866552347</v>
       </c>
       <c r="F38">
-        <v>0.223060561525412</v>
+        <v>0.448978830861869</v>
       </c>
       <c r="G38">
-        <v>1.01730122912786</v>
+        <v>2.01134195902272</v>
       </c>
       <c r="H38">
-        <v>0.0303288756498212</v>
-      </c>
-      <c r="I38">
-        <v>9.493533977517641</v>
+        <v>0.000749563521701535</v>
       </c>
     </row>
     <row r="39">
@@ -1486,28 +1370,25 @@
         <v>42095</v>
       </c>
       <c r="B39">
-        <v>13640.4312533576</v>
+        <v>8.77924965727648</v>
       </c>
       <c r="C39">
-        <v>0.20339893304116</v>
+        <v>0.413075573177744</v>
       </c>
       <c r="D39">
-        <v>0.126388857623535</v>
+        <v>0.256460793825451</v>
       </c>
       <c r="E39">
-        <v>0.0800056687247083</v>
+        <v>0.16199384267881</v>
       </c>
       <c r="F39">
-        <v>0.208505747708199</v>
+        <v>0.422534675906686</v>
       </c>
       <c r="G39">
-        <v>0.989489536102137</v>
+        <v>2.00865293838521</v>
       </c>
       <c r="H39">
-        <v>0.0275085833436864</v>
-      </c>
-      <c r="I39">
-        <v>9.520793547712726</v>
+        <v>-0.000830219263246285</v>
       </c>
     </row>
     <row r="40">
@@ -1515,28 +1396,25 @@
         <v>42186</v>
       </c>
       <c r="B40">
-        <v>14205.7736568692</v>
+        <v>8.81318769288581</v>
       </c>
       <c r="C40">
-        <v>0.211759832023711</v>
+        <v>0.436064825353882</v>
       </c>
       <c r="D40">
-        <v>0.138479335246462</v>
+        <v>0.285611412588023</v>
       </c>
       <c r="E40">
-        <v>0.07427439195393851</v>
+        <v>0.152620491886999</v>
       </c>
       <c r="F40">
-        <v>0.214422050405685</v>
+        <v>0.441837878285049</v>
       </c>
       <c r="G40">
-        <v>0.970482175965719</v>
+        <v>1.99536817159521</v>
       </c>
       <c r="H40">
-        <v>0.0425599552181893</v>
-      </c>
-      <c r="I40">
-        <v>9.561403756505948</v>
+        <v>0.00348179506113881</v>
       </c>
     </row>
     <row r="41">
@@ -1544,28 +1422,25 @@
         <v>42278</v>
       </c>
       <c r="B41">
-        <v>14374.4239476212</v>
+        <v>8.81844310455172</v>
       </c>
       <c r="C41">
-        <v>0.213036088939862</v>
+        <v>0.446307713855726</v>
       </c>
       <c r="D41">
-        <v>0.138940844084767</v>
+        <v>0.288319349256178</v>
       </c>
       <c r="E41">
-        <v>0.076477228024984</v>
+        <v>0.160209680500428</v>
       </c>
       <c r="F41">
-        <v>0.224654921604622</v>
+        <v>0.46545124199057</v>
       </c>
       <c r="G41">
-        <v>0.951523072289478</v>
+        <v>2.02050108815169</v>
       </c>
       <c r="H41">
-        <v>0.0120674296341038</v>
-      </c>
-      <c r="I41">
-        <v>9.573205791653638</v>
+        <v>0.000889025693029149</v>
       </c>
     </row>
     <row r="42">
@@ -1573,28 +1448,25 @@
         <v>42370</v>
       </c>
       <c r="B42">
-        <v>14500.9764005722</v>
+        <v>8.81212944512591</v>
       </c>
       <c r="C42">
-        <v>0.225720278091533</v>
+        <v>0.475413593545809</v>
       </c>
       <c r="D42">
-        <v>0.148654808495173</v>
+        <v>0.317088898010447</v>
       </c>
       <c r="E42">
-        <v>0.0837882907615994</v>
+        <v>0.177042855110674</v>
       </c>
       <c r="F42">
-        <v>0.202379348076491</v>
+        <v>0.437269330622023</v>
       </c>
       <c r="G42">
-        <v>0.945604621496306</v>
+        <v>1.98464555358856</v>
       </c>
       <c r="H42">
-        <v>0.009982897946853839</v>
-      </c>
-      <c r="I42">
-        <v>9.581971264112063</v>
+        <v>-0.000429101671137084</v>
       </c>
     </row>
     <row r="43">
@@ -1602,28 +1474,25 @@
         <v>42461</v>
       </c>
       <c r="B43">
-        <v>15072.9231046152</v>
+        <v>8.834905682138411</v>
       </c>
       <c r="C43">
-        <v>0.228309732105193</v>
+        <v>0.483077479290893</v>
       </c>
       <c r="D43">
-        <v>0.142983175106838</v>
+        <v>0.301390806525086</v>
       </c>
       <c r="E43">
-        <v>0.0763021468975819</v>
+        <v>0.161028431350712</v>
       </c>
       <c r="F43">
-        <v>0.202318212032506</v>
+        <v>0.423328346856807</v>
       </c>
       <c r="G43">
-        <v>0.944343653619105</v>
+        <v>2.00560862223213</v>
       </c>
       <c r="H43">
-        <v>0.0387031539946361</v>
-      </c>
-      <c r="I43">
-        <v>9.620655241265982</v>
+        <v>0.00244713473776871</v>
       </c>
     </row>
     <row r="44">
@@ -1631,28 +1500,25 @@
         <v>42552</v>
       </c>
       <c r="B44">
-        <v>15229.3117496232</v>
+        <v>8.835253787739809</v>
       </c>
       <c r="C44">
-        <v>0.214274653640974</v>
+        <v>0.461224887624452</v>
       </c>
       <c r="D44">
-        <v>0.141183975021376</v>
+        <v>0.304576335609349</v>
       </c>
       <c r="E44">
-        <v>0.07348630935927521</v>
+        <v>0.157671860504258</v>
       </c>
       <c r="F44">
-        <v>0.202385447427786</v>
+        <v>0.436211668256995</v>
       </c>
       <c r="G44">
-        <v>0.938620791679279</v>
+        <v>2.02383538647649</v>
       </c>
       <c r="H44">
-        <v>0.0110195488622423</v>
-      </c>
-      <c r="I44">
-        <v>9.630977254429691</v>
+        <v>-0.000442077792691343</v>
       </c>
     </row>
     <row r="45">
@@ -1660,28 +1526,25 @@
         <v>42644</v>
       </c>
       <c r="B45">
-        <v>15279.2682572859</v>
+        <v>8.84393501851889</v>
       </c>
       <c r="C45">
-        <v>0.20698254887241</v>
+        <v>0.448501638593707</v>
       </c>
       <c r="D45">
-        <v>0.144109432936108</v>
+        <v>0.310098752598882</v>
       </c>
       <c r="E45">
-        <v>0.0654100283863714</v>
+        <v>0.141647065682594</v>
       </c>
       <c r="F45">
-        <v>0.202575608349576</v>
+        <v>0.433984363007685</v>
       </c>
       <c r="G45">
-        <v>0.940670970218243</v>
+        <v>2.01972088872759</v>
       </c>
       <c r="H45">
-        <v>0.00333986581791507</v>
-      </c>
-      <c r="I45">
-        <v>9.634252172652721</v>
+        <v>0.00137024093489347</v>
       </c>
     </row>
     <row r="46">
@@ -1689,28 +1552,25 @@
         <v>42736</v>
       </c>
       <c r="B46">
-        <v>15968.9685146152</v>
+        <v>8.870706466983711</v>
       </c>
       <c r="C46">
-        <v>0.217770501524661</v>
+        <v>0.475991994865944</v>
       </c>
       <c r="D46">
-        <v>0.140679962845715</v>
+        <v>0.307426636814227</v>
       </c>
       <c r="E46">
-        <v>0.0718780329882715</v>
+        <v>0.157853332803786</v>
       </c>
       <c r="F46">
-        <v>0.20002380070173</v>
+        <v>0.430138357325376</v>
       </c>
       <c r="G46">
-        <v>0.945024042052614</v>
+        <v>2.07114890302257</v>
       </c>
       <c r="H46">
-        <v>0.0450582633123419</v>
-      </c>
-      <c r="I46">
-        <v>9.678402650182289</v>
+        <v>0.00333921835046964</v>
       </c>
     </row>
     <row r="47">
@@ -1718,28 +1578,25 @@
         <v>42826</v>
       </c>
       <c r="B47">
-        <v>16111.0146148419</v>
+        <v>8.858237682504409</v>
       </c>
       <c r="C47">
-        <v>0.22046679347622</v>
+        <v>0.48426991955296</v>
       </c>
       <c r="D47">
-        <v>0.145829865879174</v>
+        <v>0.321883648424823</v>
       </c>
       <c r="E47">
-        <v>0.07865572454037301</v>
+        <v>0.172300443113263</v>
       </c>
       <c r="F47">
-        <v>0.179780484890361</v>
+        <v>0.408064573658762</v>
       </c>
       <c r="G47">
-        <v>0.9631921718500061</v>
+        <v>2.11090232657412</v>
       </c>
       <c r="H47">
-        <v>0.00903664740229526</v>
-      </c>
-      <c r="I47">
-        <v>9.687258454624949</v>
+        <v>-0.00158500008772381</v>
       </c>
     </row>
     <row r="48">
@@ -1747,28 +1604,25 @@
         <v>42917</v>
       </c>
       <c r="B48">
-        <v>16019.6363001438</v>
+        <v>8.85525365460728</v>
       </c>
       <c r="C48">
-        <v>0.232362978665398</v>
+        <v>0.514024577705876</v>
       </c>
       <c r="D48">
-        <v>0.14870737624016</v>
+        <v>0.330696848777214</v>
       </c>
       <c r="E48">
-        <v>0.08359547878662001</v>
+        <v>0.184139076526414</v>
       </c>
       <c r="F48">
-        <v>0.189735539331693</v>
+        <v>0.420546406115943</v>
       </c>
       <c r="G48">
-        <v>0.98588607098383</v>
+        <v>2.1793723290853</v>
       </c>
       <c r="H48">
-        <v>-0.00521320442516393</v>
-      </c>
-      <c r="I48">
-        <v>9.681570517502202</v>
+        <v>-0.000907975852801822</v>
       </c>
     </row>
     <row r="49">
@@ -1776,28 +1630,25 @@
         <v>43009</v>
       </c>
       <c r="B49">
-        <v>16665.5864491037</v>
+        <v>8.87040754189087</v>
       </c>
       <c r="C49">
-        <v>0.220187783565293</v>
+        <v>0.505766322281036</v>
       </c>
       <c r="D49">
-        <v>0.139995606156587</v>
+        <v>0.319496677870667</v>
       </c>
       <c r="E49">
-        <v>0.08038423400754199</v>
+        <v>0.184444791529911</v>
       </c>
       <c r="F49">
-        <v>0.18363905214264</v>
+        <v>0.416690420711297</v>
       </c>
       <c r="G49">
-        <v>0.991468692078173</v>
+        <v>2.27055235834592</v>
       </c>
       <c r="H49">
-        <v>0.0421518460442809</v>
-      </c>
-      <c r="I49">
-        <v>9.721101180587938</v>
+        <v>0.00219127714427254</v>
       </c>
     </row>
     <row r="50">
@@ -1805,28 +1656,25 @@
         <v>43101</v>
       </c>
       <c r="B50">
-        <v>16590.7253946322</v>
+        <v>8.882978036972821</v>
       </c>
       <c r="C50">
-        <v>0.217017458134516</v>
+        <v>0.486507993293526</v>
       </c>
       <c r="D50">
-        <v>0.148909133375889</v>
+        <v>0.333993952523285</v>
       </c>
       <c r="E50">
-        <v>0.0779698214606059</v>
+        <v>0.176014544003456</v>
       </c>
       <c r="F50">
-        <v>0.176981731601927</v>
+        <v>0.406030597710603</v>
       </c>
       <c r="G50">
-        <v>0.97494699388166</v>
+        <v>2.20997570592569</v>
       </c>
       <c r="H50">
-        <v>-0.00289170056048611</v>
-      </c>
-      <c r="I50">
-        <v>9.716599107040656</v>
+        <v>0.0017693239239472</v>
       </c>
     </row>
     <row r="51">
@@ -1834,28 +1682,25 @@
         <v>43191</v>
       </c>
       <c r="B51">
-        <v>15722.8032301969</v>
+        <v>8.792653325256991</v>
       </c>
       <c r="C51">
-        <v>0.207584859010657</v>
+        <v>0.472431178684226</v>
       </c>
       <c r="D51">
-        <v>0.138938877404363</v>
+        <v>0.316544142584326</v>
       </c>
       <c r="E51">
-        <v>0.0586700044267281</v>
+        <v>0.133021837127642</v>
       </c>
       <c r="F51">
-        <v>0.170338553828307</v>
+        <v>0.38409195449479</v>
       </c>
       <c r="G51">
-        <v>0.952053798609735</v>
+        <v>2.16222386394211</v>
       </c>
       <c r="H51">
-        <v>-0.0500766083840531</v>
-      </c>
-      <c r="I51">
-        <v>9.662867372617233</v>
+        <v>-0.0103664784564176</v>
       </c>
     </row>
     <row r="52">
@@ -1863,28 +1708,25 @@
         <v>43282</v>
       </c>
       <c r="B52">
-        <v>15745.8878771207</v>
+        <v>8.79648481662684</v>
       </c>
       <c r="C52">
-        <v>0.242729785039711</v>
+        <v>0.557101411739551</v>
       </c>
       <c r="D52">
-        <v>0.156383837265461</v>
+        <v>0.360766187207709</v>
       </c>
       <c r="E52">
-        <v>0.0863372523456198</v>
+        <v>0.197022502781736</v>
       </c>
       <c r="F52">
-        <v>0.140815512088098</v>
+        <v>0.324216518089903</v>
       </c>
       <c r="G52">
-        <v>0.924690861214687</v>
+        <v>2.12288058244717</v>
       </c>
       <c r="H52">
-        <v>0.00196628175972749</v>
-      </c>
-      <c r="I52">
-        <v>9.664334522997651</v>
+        <v>-0.000204180643971965</v>
       </c>
     </row>
     <row r="53">
@@ -1892,28 +1734,25 @@
         <v>43374</v>
       </c>
       <c r="B53">
-        <v>15582.6536857269</v>
+        <v>8.78834877796282</v>
       </c>
       <c r="C53">
-        <v>0.22583723066726</v>
+        <v>0.524180537968682</v>
       </c>
       <c r="D53">
-        <v>0.147048455955138</v>
+        <v>0.3407089828471</v>
       </c>
       <c r="E53">
-        <v>0.0779028640917981</v>
+        <v>0.18074161351608</v>
       </c>
       <c r="F53">
-        <v>0.104187855163137</v>
+        <v>0.239359871461945</v>
       </c>
       <c r="G53">
-        <v>0.909891351250296</v>
+        <v>2.09441452181896</v>
       </c>
       <c r="H53">
-        <v>-0.0106472681662305</v>
-      </c>
-      <c r="I53">
-        <v>9.653913631347471</v>
+        <v>-0.000379960900270474</v>
       </c>
     </row>
     <row r="54">
@@ -1921,28 +1760,25 @@
         <v>43466</v>
       </c>
       <c r="B54">
-        <v>15483.2473189519</v>
+        <v>8.7714894829336</v>
       </c>
       <c r="C54">
-        <v>0.203095680451134</v>
+        <v>0.473416958587346</v>
       </c>
       <c r="D54">
-        <v>0.136293963684801</v>
+        <v>0.313317438027379</v>
       </c>
       <c r="E54">
-        <v>0.0652781617095745</v>
+        <v>0.153698430705447</v>
       </c>
       <c r="F54">
-        <v>0.09665828858057671</v>
+        <v>0.214861846919768</v>
       </c>
       <c r="G54">
-        <v>0.927186552760257</v>
+        <v>2.18789931159761</v>
       </c>
       <c r="H54">
-        <v>-0.00463649409770006</v>
-      </c>
-      <c r="I54">
-        <v>9.647513900270084</v>
+        <v>-0.00153211930287594</v>
       </c>
     </row>
     <row r="55">
@@ -1950,28 +1786,25 @@
         <v>43556</v>
       </c>
       <c r="B55">
-        <v>16112.777812768</v>
+        <v>8.755141095526881</v>
       </c>
       <c r="C55">
-        <v>0.226077308277076</v>
+        <v>0.543537864773492</v>
       </c>
       <c r="D55">
-        <v>0.154829349410507</v>
+        <v>0.378286056150203</v>
       </c>
       <c r="E55">
-        <v>0.0720797956393924</v>
+        <v>0.172185604067207</v>
       </c>
       <c r="F55">
-        <v>0.08970996205143961</v>
+        <v>0.229002235484206</v>
       </c>
       <c r="G55">
-        <v>0.937904255675603</v>
+        <v>2.24893433715429</v>
       </c>
       <c r="H55">
-        <v>0.0393297790920066</v>
-      </c>
-      <c r="I55">
-        <v>9.687367889163532</v>
+        <v>-0.00209420726729049</v>
       </c>
     </row>
     <row r="56">
@@ -1979,28 +1812,25 @@
         <v>43647</v>
       </c>
       <c r="B56">
-        <v>16174.6475041707</v>
+        <v>8.76661282026477</v>
       </c>
       <c r="C56">
-        <v>0.205577523906191</v>
+        <v>0.498037433856895</v>
       </c>
       <c r="D56">
-        <v>0.149842880353481</v>
+        <v>0.362349912107277</v>
       </c>
       <c r="E56">
-        <v>0.0568062811844681</v>
+        <v>0.136507246487273</v>
       </c>
       <c r="F56">
-        <v>0.102186095070918</v>
+        <v>0.248566519026996</v>
       </c>
       <c r="G56">
-        <v>0.953685752213537</v>
+        <v>2.31697260131397</v>
       </c>
       <c r="H56">
-        <v>0.004626830468704</v>
-      </c>
-      <c r="I56">
-        <v>9.691200326499224</v>
+        <v>0.00059352007037387</v>
       </c>
     </row>
     <row r="57">
@@ -2008,28 +1838,25 @@
         <v>43739</v>
       </c>
       <c r="B57">
-        <v>16635.7299712618</v>
+        <v>8.791135485758201</v>
       </c>
       <c r="C57">
-        <v>0.242422085713091</v>
+        <v>0.598563887614839</v>
       </c>
       <c r="D57">
-        <v>0.162324398431115</v>
+        <v>0.401460096576668</v>
       </c>
       <c r="E57">
-        <v>0.07880342372706479</v>
+        <v>0.194825788491998</v>
       </c>
       <c r="F57">
-        <v>0.08836424568360469</v>
+        <v>0.215075857826276</v>
       </c>
       <c r="G57">
-        <v>0.949892969635924</v>
+        <v>2.31731128362822</v>
       </c>
       <c r="H57">
-        <v>0.0301683119984726</v>
-      </c>
-      <c r="I57">
-        <v>9.71930806914065</v>
+        <v>0.0034335979348088</v>
       </c>
     </row>
     <row r="58">
@@ -2037,28 +1864,25 @@
         <v>43831</v>
       </c>
       <c r="B58">
-        <v>16654.1684159481</v>
+        <v>8.78072905221733</v>
       </c>
       <c r="C58">
-        <v>0.218825440787125</v>
+        <v>0.540749840341702</v>
       </c>
       <c r="D58">
-        <v>0.146901309331971</v>
+        <v>0.35665151348413</v>
       </c>
       <c r="E58">
-        <v>0.0710451308745587</v>
+        <v>0.178147834448432</v>
       </c>
       <c r="F58">
-        <v>0.105753659314964</v>
+        <v>0.256129064109564</v>
       </c>
       <c r="G58">
-        <v>0.928789387419324</v>
+        <v>2.35100638407576</v>
       </c>
       <c r="H58">
-        <v>0.00254486425825009</v>
-      </c>
-      <c r="I58">
-        <v>9.720415819387126</v>
+        <v>-0.000767500937266552</v>
       </c>
     </row>
     <row r="59">
@@ -2066,28 +1890,25 @@
         <v>43922</v>
       </c>
       <c r="B59">
-        <v>15606.8453277608</v>
+        <v>8.67168594402763</v>
       </c>
       <c r="C59">
-        <v>0.263930654586681</v>
+        <v>0.663912697865508</v>
       </c>
       <c r="D59">
-        <v>0.175788454870633</v>
+        <v>0.451874379510749</v>
       </c>
       <c r="E59">
-        <v>0.08744860166146361</v>
+        <v>0.217779238226844</v>
       </c>
       <c r="F59">
-        <v>0.0818174980958592</v>
+        <v>0.215121770494401</v>
       </c>
       <c r="G59">
-        <v>0.790222415602851</v>
+        <v>1.99590943447271</v>
       </c>
       <c r="H59">
-        <v>-0.0600559218186409</v>
-      </c>
-      <c r="I59">
-        <v>9.655464900053309</v>
+        <v>-0.0126319704832886</v>
       </c>
     </row>
     <row r="60">
@@ -2095,28 +1916,25 @@
         <v>44013</v>
       </c>
       <c r="B60">
-        <v>16663.9554149555</v>
+        <v>8.742640728577269</v>
       </c>
       <c r="C60">
-        <v>0.211713965603195</v>
+        <v>0.538855796314561</v>
       </c>
       <c r="D60">
-        <v>0.138905782986666</v>
+        <v>0.351503681527324</v>
       </c>
       <c r="E60">
-        <v>0.07604819240909221</v>
+        <v>0.191257600304773</v>
       </c>
       <c r="F60">
-        <v>0.0950086890839475</v>
+        <v>0.242998478218256</v>
       </c>
       <c r="G60">
-        <v>0.890360591005296</v>
+        <v>2.24815494250522</v>
       </c>
       <c r="H60">
-        <v>0.0695280669116632</v>
-      </c>
-      <c r="I60">
-        <v>9.721003307406473</v>
+        <v>0.00738431867896544</v>
       </c>
     </row>
     <row r="61">
@@ -2124,28 +1942,25 @@
         <v>44105</v>
       </c>
       <c r="B61">
-        <v>17051.8771290112</v>
+        <v>8.756582232395809</v>
       </c>
       <c r="C61">
-        <v>0.241966268969658</v>
+        <v>0.632949477489733</v>
       </c>
       <c r="D61">
-        <v>0.146645512479123</v>
+        <v>0.384076968551922</v>
       </c>
       <c r="E61">
-        <v>0.0919441050665365</v>
+        <v>0.241474585230015</v>
       </c>
       <c r="F61">
-        <v>0.108237212857253</v>
+        <v>0.27730112755105</v>
       </c>
       <c r="G61">
-        <v>0.927117858886163</v>
+        <v>2.39677624323308</v>
       </c>
       <c r="H61">
-        <v>0.0249141357279523</v>
-      </c>
-      <c r="I61">
-        <v>9.744015572194773</v>
+        <v>0.00225439688647535</v>
       </c>
     </row>
     <row r="62">
@@ -2153,28 +1968,25 @@
         <v>44197</v>
       </c>
       <c r="B62">
-        <v>17720.1264574694</v>
+        <v>8.802760105660219</v>
       </c>
       <c r="C62">
-        <v>0.260505241742327</v>
+        <v>0.665562788671124</v>
       </c>
       <c r="D62">
-        <v>0.161576782267382</v>
+        <v>0.407154006522615</v>
       </c>
       <c r="E62">
-        <v>0.0974394100151485</v>
+        <v>0.254262489314381</v>
       </c>
       <c r="F62">
-        <v>0.117477879709337</v>
+        <v>0.30549577596726</v>
       </c>
       <c r="G62">
-        <v>0.9866476629751471</v>
+        <v>2.5257152317587</v>
       </c>
       <c r="H62">
-        <v>0.0394832143825361</v>
-      </c>
-      <c r="I62">
-        <v>9.782456360559646</v>
+        <v>0.00568253296996341</v>
       </c>
     </row>
     <row r="63">
@@ -2182,28 +1994,25 @@
         <v>44287</v>
       </c>
       <c r="B63">
-        <v>18615.5238480306</v>
+        <v>8.82325079853438</v>
       </c>
       <c r="C63">
-        <v>0.222308791604974</v>
+        <v>0.571094995644207</v>
       </c>
       <c r="D63">
-        <v>0.138005925941188</v>
+        <v>0.360235903649385</v>
       </c>
       <c r="E63">
-        <v>0.0864143382361207</v>
+        <v>0.218505838946855</v>
       </c>
       <c r="F63">
-        <v>0.145370481393223</v>
+        <v>0.375668557908475</v>
       </c>
       <c r="G63">
-        <v>1.05986621188952</v>
+        <v>2.7714046339763</v>
       </c>
       <c r="H63">
-        <v>0.0488024311275437</v>
-      </c>
-      <c r="I63">
-        <v>9.831751127088976</v>
+        <v>0.00212939702353748</v>
       </c>
     </row>
     <row r="64">
@@ -2211,28 +2020,25 @@
         <v>44378</v>
       </c>
       <c r="B64">
-        <v>18603.2503231153</v>
+        <v>8.825560163259251</v>
       </c>
       <c r="C64">
-        <v>0.275205319407018</v>
+        <v>0.7156559079952281</v>
       </c>
       <c r="D64">
-        <v>0.155466970595557</v>
+        <v>0.404268162751718</v>
       </c>
       <c r="E64">
-        <v>0.12305022268292</v>
+        <v>0.314632830075789</v>
       </c>
       <c r="F64">
-        <v>0.132363147842278</v>
+        <v>0.34575088659003</v>
       </c>
       <c r="G64">
-        <v>1.10488385813029</v>
+        <v>2.9376024945901</v>
       </c>
       <c r="H64">
-        <v>6.85579723565567e-05</v>
-      </c>
-      <c r="I64">
-        <v>9.831091592989129</v>
+        <v>-0.00061268673540331</v>
       </c>
     </row>
     <row r="65">
@@ -2240,28 +2046,129 @@
         <v>44470</v>
       </c>
       <c r="B65">
-        <v>19663.6706922526</v>
+        <v>8.839130259648121</v>
       </c>
       <c r="C65">
-        <v>0.260827371147031</v>
+        <v>0.725600198125741</v>
       </c>
       <c r="D65">
-        <v>0.155663047069799</v>
+        <v>0.434224451903409</v>
       </c>
       <c r="E65">
-        <v>0.101214072542545</v>
+        <v>0.284080931664972</v>
       </c>
       <c r="F65">
-        <v>0.122427304696971</v>
+        <v>0.331124489185251</v>
       </c>
       <c r="G65">
-        <v>1.10187583042868</v>
+        <v>2.98056075263344</v>
       </c>
       <c r="H65">
-        <v>0.0601894694355284</v>
-      </c>
-      <c r="I65">
-        <v>9.886528084933113</v>
+        <v>0.00220374496707046</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B66">
+        <v>8.835074234374011</v>
+      </c>
+      <c r="C66">
+        <v>0.655263125628611</v>
+      </c>
+      <c r="D66">
+        <v>0.401278275969976</v>
+      </c>
+      <c r="E66">
+        <v>0.249392406699667</v>
+      </c>
+      <c r="F66">
+        <v>0.353247307350716</v>
+      </c>
+      <c r="G66">
+        <v>3.2210968382022</v>
+      </c>
+      <c r="H66">
+        <v>-1.45889350077746e-005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>44652</v>
+      </c>
+      <c r="B67">
+        <v>8.853292696421461</v>
+      </c>
+      <c r="C67">
+        <v>0.662843682910881</v>
+      </c>
+      <c r="D67">
+        <v>0.396584610127525</v>
+      </c>
+      <c r="E67">
+        <v>0.275229021875779</v>
+      </c>
+      <c r="F67">
+        <v>0.36388013139424</v>
+      </c>
+      <c r="G67">
+        <v>3.28609250873458</v>
+      </c>
+      <c r="H67">
+        <v>0.00189210180922063</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B68">
+        <v>8.844188972405069</v>
+      </c>
+      <c r="C68">
+        <v>0.669953280035047</v>
+      </c>
+      <c r="D68">
+        <v>0.40180676673716</v>
+      </c>
+      <c r="E68">
+        <v>0.269529488824463</v>
+      </c>
+      <c r="F68">
+        <v>0.372213056848623</v>
+      </c>
+      <c r="G68">
+        <v>3.35934139856525</v>
+      </c>
+      <c r="H68">
+        <v>-0.00193051893808106</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>44835</v>
+      </c>
+      <c r="B69">
+        <v>8.848530688410939</v>
+      </c>
+      <c r="C69">
+        <v>0.60733760856289</v>
+      </c>
+      <c r="D69">
+        <v>0.379397488538984</v>
+      </c>
+      <c r="E69">
+        <v>0.226652924806581</v>
+      </c>
+      <c r="F69">
+        <v>0.356302063454589</v>
+      </c>
+      <c r="G69">
+        <v>3.37385856086166</v>
+      </c>
+      <c r="H69">
+        <v>0.00115643956106339</v>
       </c>
     </row>
   </sheetData>

--- a/df_seas.xlsx
+++ b/df_seas.xlsx
@@ -414,19 +414,19 @@
         <v>8.56450344290489</v>
       </c>
       <c r="C2">
-        <v>0.181181767057434</v>
+        <v>0.17833161579491</v>
       </c>
       <c r="D2">
-        <v>0.136108739242689</v>
+        <v>0.136532304481368</v>
       </c>
       <c r="E2">
-        <v>0.0450624794753386</v>
+        <v>0.0454692726055105</v>
       </c>
       <c r="F2">
-        <v>0.179914242759861</v>
+        <v>0.190690868840398</v>
       </c>
       <c r="G2">
-        <v>0.822391410498332</v>
+        <v>0.837189367914792</v>
       </c>
     </row>
     <row r="3">
@@ -437,19 +437,19 @@
         <v>8.557949888313351</v>
       </c>
       <c r="C3">
-        <v>0.195656093908528</v>
+        <v>0.197715550333926</v>
       </c>
       <c r="D3">
-        <v>0.160621383619518</v>
+        <v>0.162463146198988</v>
       </c>
       <c r="E3">
-        <v>0.0384324054770323</v>
+        <v>0.0387229862086234</v>
       </c>
       <c r="F3">
-        <v>0.197685631490761</v>
+        <v>0.198574645198529</v>
       </c>
       <c r="G3">
-        <v>0.86728604073086</v>
+        <v>0.875841156197438</v>
       </c>
       <c r="H3">
         <v>-0.000538598423895812</v>
@@ -463,19 +463,19 @@
         <v>8.566448411355861</v>
       </c>
       <c r="C4">
-        <v>0.184622488224596</v>
+        <v>0.184135712867786</v>
       </c>
       <c r="D4">
-        <v>0.14554984592595</v>
+        <v>0.144736036690312</v>
       </c>
       <c r="E4">
-        <v>0.038311578033145</v>
+        <v>0.0381378040530048</v>
       </c>
       <c r="F4">
-        <v>0.213838790790676</v>
+        <v>0.214191654537141</v>
       </c>
       <c r="G4">
-        <v>0.891163775117892</v>
+        <v>0.892957429605502</v>
       </c>
       <c r="H4">
         <v>0.000942614877870655</v>
@@ -489,19 +489,19 @@
         <v>8.57890678510025</v>
       </c>
       <c r="C5">
-        <v>0.201065797224841</v>
+        <v>0.203565783161299</v>
       </c>
       <c r="D5">
-        <v>0.158423647601464</v>
+        <v>0.15731949041774</v>
       </c>
       <c r="E5">
-        <v>0.0408362572901294</v>
+        <v>0.0405402092355423</v>
       </c>
       <c r="F5">
-        <v>0.217378843505345</v>
+        <v>0.205552607755508</v>
       </c>
       <c r="G5">
-        <v>0.924390898449648</v>
+        <v>0.897563736285274</v>
       </c>
       <c r="H5">
         <v>0.00132610982239684</v>
@@ -515,19 +515,19 @@
         <v>8.58620767533324</v>
       </c>
       <c r="C6">
-        <v>0.18480240730912</v>
+        <v>0.167025159591654</v>
       </c>
       <c r="D6">
-        <v>0.148083563633919</v>
+        <v>0.136802249388165</v>
       </c>
       <c r="E6">
-        <v>0.0342147673695723</v>
+        <v>0.0314580756365824</v>
       </c>
       <c r="F6">
-        <v>0.219996257706038</v>
+        <v>0.207217143031078</v>
       </c>
       <c r="G6">
-        <v>0.93407061923632</v>
+        <v>0.881941054904454</v>
       </c>
       <c r="H6">
         <v>0.000838982040597775</v>
@@ -541,19 +541,19 @@
         <v>8.59042512921523</v>
       </c>
       <c r="C7">
-        <v>0.182618911748926</v>
+        <v>0.167905945024937</v>
       </c>
       <c r="D7">
-        <v>0.143554529844185</v>
+        <v>0.131769976444438</v>
       </c>
       <c r="E7">
-        <v>0.0422913800662724</v>
+        <v>0.0389750005548739</v>
       </c>
       <c r="F7">
-        <v>0.252580569713824</v>
+        <v>0.235495869332335</v>
       </c>
       <c r="G7">
-        <v>0.973898547852693</v>
+        <v>0.896511016059977</v>
       </c>
       <c r="H7">
         <v>0.000738007689144305</v>
@@ -567,19 +567,19 @@
         <v>8.60297690327986</v>
       </c>
       <c r="C8">
-        <v>0.196876162661975</v>
+        <v>0.180289606900169</v>
       </c>
       <c r="D8">
-        <v>0.14930421488643</v>
+        <v>0.136343723886906</v>
       </c>
       <c r="E8">
-        <v>0.0469144354190414</v>
+        <v>0.0428982782062664</v>
       </c>
       <c r="F8">
-        <v>0.227199043591571</v>
+        <v>0.208462505821166</v>
       </c>
       <c r="G8">
-        <v>1.03515368727665</v>
+        <v>0.940697794271427</v>
       </c>
       <c r="H8">
         <v>0.0014034533958554</v>
@@ -593,19 +593,19 @@
         <v>8.626776227752</v>
       </c>
       <c r="C9">
-        <v>0.228254015347995</v>
+        <v>0.207793239871235</v>
       </c>
       <c r="D9">
-        <v>0.165799494739472</v>
+        <v>0.148187363568771</v>
       </c>
       <c r="E9">
-        <v>0.0593930395437451</v>
+        <v>0.0531645674930649</v>
       </c>
       <c r="F9">
-        <v>0.231305186166986</v>
+        <v>0.198844470636606</v>
       </c>
       <c r="G9">
-        <v>1.13213996380781</v>
+        <v>0.987632366256746</v>
       </c>
       <c r="H9">
         <v>0.00262337860397792</v>
@@ -619,19 +619,19 @@
         <v>8.62829057266776</v>
       </c>
       <c r="C10">
-        <v>0.192962908935343</v>
+        <v>0.155117514908256</v>
       </c>
       <c r="D10">
-        <v>0.155951909508549</v>
+        <v>0.127667390650969</v>
       </c>
       <c r="E10">
-        <v>0.050266232375448</v>
+        <v>0.0408824229648532</v>
       </c>
       <c r="F10">
-        <v>0.292837661877072</v>
+        <v>0.240431554001551</v>
       </c>
       <c r="G10">
-        <v>1.20740350501862</v>
+        <v>1.00141053556331</v>
       </c>
       <c r="H10">
         <v>0.000173160975072345</v>
@@ -645,19 +645,19 @@
         <v>8.648333987203049</v>
       </c>
       <c r="C11">
-        <v>0.252913048133586</v>
+        <v>0.200884716005275</v>
       </c>
       <c r="D11">
-        <v>0.172307496333425</v>
+        <v>0.136744001519643</v>
       </c>
       <c r="E11">
-        <v>0.0671334742682048</v>
+        <v>0.0535509186881429</v>
       </c>
       <c r="F11">
-        <v>0.28081858304326</v>
+        <v>0.227741986076617</v>
       </c>
       <c r="G11">
-        <v>1.24675602495409</v>
+        <v>0.9879155014322351</v>
       </c>
       <c r="H11">
         <v>0.00259632350271207</v>
@@ -671,19 +671,19 @@
         <v>8.62670181541832</v>
       </c>
       <c r="C12">
-        <v>0.271195405581696</v>
+        <v>0.207285786851261</v>
       </c>
       <c r="D12">
-        <v>0.192688948048283</v>
+        <v>0.147156132811961</v>
       </c>
       <c r="E12">
-        <v>0.07826329672859229</v>
+        <v>0.0597076249281027</v>
       </c>
       <c r="F12">
-        <v>0.267285731708369</v>
+        <v>0.204043418592545</v>
       </c>
       <c r="G12">
-        <v>1.27138557428641</v>
+        <v>0.9544729606289</v>
       </c>
       <c r="H12">
         <v>-0.00257323137232072</v>
@@ -697,19 +697,19 @@
         <v>8.584309382763991</v>
       </c>
       <c r="C13">
-        <v>0.248954167073632</v>
+        <v>0.192928148686724</v>
       </c>
       <c r="D13">
-        <v>0.181565109415511</v>
+        <v>0.138776834979069</v>
       </c>
       <c r="E13">
-        <v>0.0655600959157393</v>
+        <v>0.0501893773536957</v>
       </c>
       <c r="F13">
-        <v>0.270060855242285</v>
+        <v>0.201713064766884</v>
       </c>
       <c r="G13">
-        <v>1.18087926704969</v>
+        <v>0.888526072243815</v>
       </c>
       <c r="H13">
         <v>-0.00512198022561168</v>
@@ -723,19 +723,19 @@
         <v>8.56022940856613</v>
       </c>
       <c r="C14">
-        <v>0.271577331621696</v>
+        <v>0.19816102136042</v>
       </c>
       <c r="D14">
-        <v>0.19366699008764</v>
+        <v>0.143535762608899</v>
       </c>
       <c r="E14">
-        <v>0.0756561508616415</v>
+        <v>0.0554386103658879</v>
       </c>
       <c r="F14">
-        <v>0.211327421147444</v>
+        <v>0.159065369599529</v>
       </c>
       <c r="G14">
-        <v>1.14727492441103</v>
+        <v>0.859481451989462</v>
       </c>
       <c r="H14">
         <v>-0.00277729183055899</v>
@@ -749,19 +749,19 @@
         <v>8.569899293664051</v>
       </c>
       <c r="C15">
-        <v>0.272457683028724</v>
+        <v>0.203587933297488</v>
       </c>
       <c r="D15">
-        <v>0.198188391988685</v>
+        <v>0.147481220680969</v>
       </c>
       <c r="E15">
-        <v>0.0779789458227501</v>
+        <v>0.0587169631690807</v>
       </c>
       <c r="F15">
-        <v>0.198442771498804</v>
+        <v>0.149189888829195</v>
       </c>
       <c r="G15">
-        <v>1.136098232118</v>
+        <v>0.846940634173956</v>
       </c>
       <c r="H15">
         <v>0.00139590725170008</v>
@@ -775,19 +775,19 @@
         <v>8.58192191640269</v>
       </c>
       <c r="C16">
-        <v>0.275601692484535</v>
+        <v>0.204057959499954</v>
       </c>
       <c r="D16">
-        <v>0.196493923782282</v>
+        <v>0.145655750110642</v>
       </c>
       <c r="E16">
-        <v>0.0790474429702272</v>
+        <v>0.0582773211621757</v>
       </c>
       <c r="F16">
-        <v>0.181280333983084</v>
+        <v>0.134457340179761</v>
       </c>
       <c r="G16">
-        <v>1.17716357302944</v>
+        <v>0.861985730774647</v>
       </c>
       <c r="H16">
         <v>0.00134648660733285</v>
@@ -801,19 +801,19 @@
         <v>8.58102341555065</v>
       </c>
       <c r="C17">
-        <v>0.276314741785059</v>
+        <v>0.204159831326107</v>
       </c>
       <c r="D17">
-        <v>0.194493538419296</v>
+        <v>0.142377077445237</v>
       </c>
       <c r="E17">
-        <v>0.07988098342053319</v>
+        <v>0.0587043551757416</v>
       </c>
       <c r="F17">
-        <v>0.193836922181276</v>
+        <v>0.138247285125586</v>
       </c>
       <c r="G17">
-        <v>1.24144522712662</v>
+        <v>0.90624027912594</v>
       </c>
       <c r="H17">
         <v>-0.0002808716670872</v>
@@ -827,19 +827,19 @@
         <v>8.58151648629419</v>
       </c>
       <c r="C18">
-        <v>0.28327761293207</v>
+        <v>0.200954313377191</v>
       </c>
       <c r="D18">
-        <v>0.213103718654174</v>
+        <v>0.152360617642291</v>
       </c>
       <c r="E18">
-        <v>0.0640556165413123</v>
+        <v>0.0453510032457692</v>
       </c>
       <c r="F18">
-        <v>0.205977891752494</v>
+        <v>0.145950411290945</v>
       </c>
       <c r="G18">
-        <v>1.3400504486123</v>
+        <v>0.953349482836275</v>
       </c>
       <c r="H18">
         <v>9.765492223064769e-005</v>
@@ -853,19 +853,19 @@
         <v>8.589877061062561</v>
       </c>
       <c r="C19">
-        <v>0.259323405364645</v>
+        <v>0.185287819263657</v>
       </c>
       <c r="D19">
-        <v>0.188779332282978</v>
+        <v>0.134352786557286</v>
       </c>
       <c r="E19">
-        <v>0.07433911129948791</v>
+        <v>0.0536730956424614</v>
       </c>
       <c r="F19">
-        <v>0.200742039137893</v>
+        <v>0.147109839037367</v>
       </c>
       <c r="G19">
-        <v>1.43818699239169</v>
+        <v>1.02619864039809</v>
       </c>
       <c r="H19">
         <v>0.00119328669415882</v>
@@ -879,19 +879,19 @@
         <v>8.61451897848967</v>
       </c>
       <c r="C20">
-        <v>0.262006421689279</v>
+        <v>0.182752856359034</v>
       </c>
       <c r="D20">
-        <v>0.192666070242917</v>
+        <v>0.134943259517922</v>
       </c>
       <c r="E20">
-        <v>0.0687298294532831</v>
+        <v>0.0475212887667516</v>
       </c>
       <c r="F20">
-        <v>0.238699175298044</v>
+        <v>0.16728854326644</v>
       </c>
       <c r="G20">
-        <v>1.46212678477507</v>
+        <v>1.01659386538509</v>
       </c>
       <c r="H20">
         <v>0.00279697856853775</v>
@@ -905,19 +905,19 @@
         <v>8.62049012834818</v>
       </c>
       <c r="C21">
-        <v>0.293974631328065</v>
+        <v>0.19626411350081</v>
       </c>
       <c r="D21">
-        <v>0.208929132561598</v>
+        <v>0.139104924006019</v>
       </c>
       <c r="E21">
-        <v>0.0842585023624312</v>
+        <v>0.0561855263007664</v>
       </c>
       <c r="F21">
-        <v>0.267852969644671</v>
+        <v>0.176306399013284</v>
       </c>
       <c r="G21">
-        <v>1.50817765124374</v>
+        <v>1.05500947659195</v>
       </c>
       <c r="H21">
         <v>0.000551025869287663</v>
@@ -931,19 +931,19 @@
         <v>8.621034446382099</v>
       </c>
       <c r="C22">
-        <v>0.293887129026329</v>
+        <v>0.197868749614252</v>
       </c>
       <c r="D22">
-        <v>0.197582395164999</v>
+        <v>0.132714139173943</v>
       </c>
       <c r="E22">
-        <v>0.0923333545234943</v>
+        <v>0.0620968616707026</v>
       </c>
       <c r="F22">
-        <v>0.270959326782016</v>
+        <v>0.182995470411139</v>
       </c>
       <c r="G22">
-        <v>1.78744303911043</v>
+        <v>1.1381446524685</v>
       </c>
       <c r="H22">
         <v>0.000158695773442248</v>
@@ -957,19 +957,19 @@
         <v>8.650068721508591</v>
       </c>
       <c r="C23">
-        <v>0.306499730145325</v>
+        <v>0.193178363716344</v>
       </c>
       <c r="D23">
-        <v>0.229257462880748</v>
+        <v>0.143929943254612</v>
       </c>
       <c r="E23">
-        <v>0.0827685168574572</v>
+        <v>0.0527122345529219</v>
       </c>
       <c r="F23">
-        <v>0.295636230543374</v>
+        <v>0.186062283573335</v>
       </c>
       <c r="G23">
-        <v>1.75416766752462</v>
+        <v>1.10387928075441</v>
       </c>
       <c r="H23">
         <v>0.00352347806859449</v>
@@ -983,19 +983,19 @@
         <v>8.67084137577579</v>
       </c>
       <c r="C24">
-        <v>0.312118841828465</v>
+        <v>0.196467186763</v>
       </c>
       <c r="D24">
-        <v>0.227448128608609</v>
+        <v>0.144115639030743</v>
       </c>
       <c r="E24">
-        <v>0.0839545465325391</v>
+        <v>0.0522109794624647</v>
       </c>
       <c r="F24">
-        <v>0.309957929254185</v>
+        <v>0.195972880927826</v>
       </c>
       <c r="G24">
-        <v>1.74312006993062</v>
+        <v>1.14112955418311</v>
       </c>
       <c r="H24">
         <v>0.00228146525481246</v>
@@ -1009,19 +1009,19 @@
         <v>8.65241101143684</v>
       </c>
       <c r="C25">
-        <v>0.286072379874935</v>
+        <v>0.171576213975841</v>
       </c>
       <c r="D25">
-        <v>0.208021283817838</v>
+        <v>0.125229105052245</v>
       </c>
       <c r="E25">
-        <v>0.0793290249855837</v>
+        <v>0.0476303890477537</v>
       </c>
       <c r="F25">
-        <v>0.342414177433517</v>
+        <v>0.206240654659866</v>
       </c>
       <c r="G25">
-        <v>1.81822937430341</v>
+        <v>1.1257023941308</v>
       </c>
       <c r="H25">
         <v>-0.00222134216618772</v>
@@ -1035,19 +1035,19 @@
         <v>8.694395390928079</v>
       </c>
       <c r="C26">
-        <v>0.348065060286907</v>
+        <v>0.215251661841685</v>
       </c>
       <c r="D26">
-        <v>0.245660860935806</v>
+        <v>0.150821352219622</v>
       </c>
       <c r="E26">
-        <v>0.0929959884260322</v>
+        <v>0.0573699166647933</v>
       </c>
       <c r="F26">
-        <v>0.361458842458679</v>
+        <v>0.218803253626883</v>
       </c>
       <c r="G26">
-        <v>1.90822238089338</v>
+        <v>1.14915177483848</v>
       </c>
       <c r="H26">
         <v>0.00497241086245308</v>
@@ -1061,19 +1061,19 @@
         <v>8.68066570632816</v>
       </c>
       <c r="C27">
-        <v>0.276132346370034</v>
+        <v>0.16595924163313</v>
       </c>
       <c r="D27">
-        <v>0.194095760225012</v>
+        <v>0.115739291469998</v>
       </c>
       <c r="E27">
-        <v>0.08671834038159459</v>
+        <v>0.052729366727107</v>
       </c>
       <c r="F27">
-        <v>0.379585574048133</v>
+        <v>0.229260773894374</v>
       </c>
       <c r="G27">
-        <v>1.95892083552276</v>
+        <v>1.17809943589264</v>
       </c>
       <c r="H27">
         <v>-0.00148587199800764</v>
@@ -1087,19 +1087,19 @@
         <v>8.694029676135999</v>
       </c>
       <c r="C28">
-        <v>0.310522735032399</v>
+        <v>0.183122381608545</v>
       </c>
       <c r="D28">
-        <v>0.228351220523485</v>
+        <v>0.135792513968787</v>
       </c>
       <c r="E28">
-        <v>0.0809974492659868</v>
+        <v>0.0471920776461332</v>
       </c>
       <c r="F28">
-        <v>0.379438487733873</v>
+        <v>0.224992157804967</v>
       </c>
       <c r="G28">
-        <v>1.93177913758307</v>
+        <v>1.14043548491462</v>
       </c>
       <c r="H28">
         <v>0.00135134910168073</v>
@@ -1113,19 +1113,19 @@
         <v>8.71930463673073</v>
       </c>
       <c r="C29">
-        <v>0.337862276642042</v>
+        <v>0.193604423278327</v>
       </c>
       <c r="D29">
-        <v>0.234232849864257</v>
+        <v>0.135424251840576</v>
       </c>
       <c r="E29">
-        <v>0.10506947482321</v>
+        <v>0.0602136364257367</v>
       </c>
       <c r="F29">
-        <v>0.393639354202817</v>
+        <v>0.22887159768134</v>
       </c>
       <c r="G29">
-        <v>1.93643622596952</v>
+        <v>1.12279803621726</v>
       </c>
       <c r="H29">
         <v>0.00292721320905033</v>
@@ -1139,19 +1139,19 @@
         <v>8.713600823696639</v>
       </c>
       <c r="C30">
-        <v>0.330818639488297</v>
+        <v>0.194792631118357</v>
       </c>
       <c r="D30">
-        <v>0.231042886610778</v>
+        <v>0.13415528924751</v>
       </c>
       <c r="E30">
-        <v>0.113752613978594</v>
+        <v>0.06694704673131111</v>
       </c>
       <c r="F30">
-        <v>0.38712897024006</v>
+        <v>0.221280990498485</v>
       </c>
       <c r="G30">
-        <v>1.8664124891229</v>
+        <v>1.08014253961836</v>
       </c>
       <c r="H30">
         <v>-0.000462275975288892</v>
@@ -1165,19 +1165,19 @@
         <v>8.736803506261101</v>
       </c>
       <c r="C31">
-        <v>0.371942573150478</v>
+        <v>0.212221978746928</v>
       </c>
       <c r="D31">
-        <v>0.240028169020552</v>
+        <v>0.13609042600335</v>
       </c>
       <c r="E31">
-        <v>0.114159060786414</v>
+        <v>0.0656332610935265</v>
       </c>
       <c r="F31">
-        <v>0.392616745737621</v>
+        <v>0.224254689444776</v>
       </c>
       <c r="G31">
-        <v>1.90595647467098</v>
+        <v>1.08370722862829</v>
       </c>
       <c r="H31">
         <v>0.00269533345398633</v>
@@ -1191,19 +1191,19 @@
         <v>8.740403135925559</v>
       </c>
       <c r="C32">
-        <v>0.356819882154275</v>
+        <v>0.201221320009036</v>
       </c>
       <c r="D32">
-        <v>0.244000509312267</v>
+        <v>0.138671897196613</v>
       </c>
       <c r="E32">
-        <v>0.114240307642491</v>
+        <v>0.0639754004878941</v>
       </c>
       <c r="F32">
-        <v>0.414827844665688</v>
+        <v>0.235273810699976</v>
       </c>
       <c r="G32">
-        <v>2.00163621834205</v>
+        <v>1.124041406125</v>
       </c>
       <c r="H32">
         <v>0.000149626497449165</v>
@@ -1217,19 +1217,19 @@
         <v>8.736937936522621</v>
       </c>
       <c r="C33">
-        <v>0.331903091388485</v>
+        <v>0.185331517436246</v>
       </c>
       <c r="D33">
-        <v>0.248098323899441</v>
+        <v>0.140372952691101</v>
       </c>
       <c r="E33">
-        <v>0.08817868652983631</v>
+        <v>0.0491954038174439</v>
       </c>
       <c r="F33">
-        <v>0.371713386285493</v>
+        <v>0.212431738129313</v>
       </c>
       <c r="G33">
-        <v>1.99729373325311</v>
+        <v>1.12594272371446</v>
       </c>
       <c r="H33">
         <v>-0.00029821832146643</v>
@@ -1243,19 +1243,19 @@
         <v>8.75401054776748</v>
       </c>
       <c r="C34">
-        <v>0.384270780046191</v>
+        <v>0.21272322797282</v>
       </c>
       <c r="D34">
-        <v>0.253118314906148</v>
+        <v>0.138324728413123</v>
       </c>
       <c r="E34">
-        <v>0.120867556563084</v>
+        <v>0.0667165347248343</v>
       </c>
       <c r="F34">
-        <v>0.377429425117125</v>
+        <v>0.204034383702043</v>
       </c>
       <c r="G34">
-        <v>2.01431348351084</v>
+        <v>1.0974755677915</v>
       </c>
       <c r="H34">
         <v>0.0021583867663361</v>
@@ -1269,19 +1269,19 @@
         <v>8.76300847300476</v>
       </c>
       <c r="C35">
-        <v>0.403365932923836</v>
+        <v>0.218139019095407</v>
       </c>
       <c r="D35">
-        <v>0.297267851150085</v>
+        <v>0.159258907769734</v>
       </c>
       <c r="E35">
-        <v>0.114020110444603</v>
+        <v>0.0620053902526612</v>
       </c>
       <c r="F35">
-        <v>0.384030996421706</v>
+        <v>0.205225220323162</v>
       </c>
       <c r="G35">
-        <v>1.99004378386666</v>
+        <v>1.07099570719237</v>
       </c>
       <c r="H35">
         <v>0.00100383008667319</v>
@@ -1295,19 +1295,19 @@
         <v>8.76384158080981</v>
       </c>
       <c r="C36">
-        <v>0.385682646615064</v>
+        <v>0.197806716087736</v>
       </c>
       <c r="D36">
-        <v>0.274868750589874</v>
+        <v>0.142010559091639</v>
       </c>
       <c r="E36">
-        <v>0.110491068913519</v>
+        <v>0.056477615224315</v>
       </c>
       <c r="F36">
-        <v>0.383607259157017</v>
+        <v>0.197728549426504</v>
       </c>
       <c r="G36">
-        <v>2.03318219822106</v>
+        <v>1.03534798591681</v>
       </c>
       <c r="H36">
         <v>-0.000231611881377265</v>
@@ -1321,19 +1321,19 @@
         <v>8.781359092859679</v>
       </c>
       <c r="C37">
-        <v>0.371162327813337</v>
+        <v>0.186472354112091</v>
       </c>
       <c r="D37">
-        <v>0.263064217506447</v>
+        <v>0.133964730815609</v>
       </c>
       <c r="E37">
-        <v>0.112550128603979</v>
+        <v>0.0566701663486111</v>
       </c>
       <c r="F37">
-        <v>0.469623880194909</v>
+        <v>0.243138598563271</v>
       </c>
       <c r="G37">
-        <v>2.07114500670732</v>
+        <v>1.05301737902288</v>
       </c>
       <c r="H37">
         <v>0.00220579111655105</v>
@@ -1347,19 +1347,19 @@
         <v>8.78582039092977</v>
       </c>
       <c r="C38">
-        <v>0.457324581778309</v>
+        <v>0.235957301807042</v>
       </c>
       <c r="D38">
-        <v>0.309653685362872</v>
+        <v>0.157983857666447</v>
       </c>
       <c r="E38">
-        <v>0.133102866552347</v>
+        <v>0.0681033605534259</v>
       </c>
       <c r="F38">
-        <v>0.448978830861869</v>
+        <v>0.224709970541629</v>
       </c>
       <c r="G38">
-        <v>2.01134195902272</v>
+        <v>1.0199026531303</v>
       </c>
       <c r="H38">
         <v>0.000749563521701535</v>
@@ -1373,19 +1373,19 @@
         <v>8.77924965727648</v>
       </c>
       <c r="C39">
-        <v>0.413075573177744</v>
+        <v>0.203702991349117</v>
       </c>
       <c r="D39">
-        <v>0.256460793825451</v>
+        <v>0.125181166837211</v>
       </c>
       <c r="E39">
-        <v>0.16199384267881</v>
+        <v>0.0802570814525187</v>
       </c>
       <c r="F39">
-        <v>0.422534675906686</v>
+        <v>0.206603738968423</v>
       </c>
       <c r="G39">
-        <v>2.00865293838521</v>
+        <v>0.987405013190455</v>
       </c>
       <c r="H39">
         <v>-0.000830219263246285</v>
@@ -1399,19 +1399,19 @@
         <v>8.81318769288581</v>
       </c>
       <c r="C40">
-        <v>0.436064825353882</v>
+        <v>0.210664236337754</v>
       </c>
       <c r="D40">
-        <v>0.285611412588023</v>
+        <v>0.138772375688032</v>
       </c>
       <c r="E40">
-        <v>0.152620491886999</v>
+        <v>0.0736725616485502</v>
       </c>
       <c r="F40">
-        <v>0.441837878285049</v>
+        <v>0.214300891485765</v>
       </c>
       <c r="G40">
-        <v>1.99536817159521</v>
+        <v>0.954716160142534</v>
       </c>
       <c r="H40">
         <v>0.00348179506113881</v>
@@ -1425,19 +1425,19 @@
         <v>8.81844310455172</v>
       </c>
       <c r="C41">
-        <v>0.446307713855726</v>
+        <v>0.209833476478112</v>
       </c>
       <c r="D41">
-        <v>0.288319349256178</v>
+        <v>0.137167606044454</v>
       </c>
       <c r="E41">
-        <v>0.160209680500428</v>
+        <v>0.0756600745126567</v>
       </c>
       <c r="F41">
-        <v>0.46545124199057</v>
+        <v>0.225028756551988</v>
       </c>
       <c r="G41">
-        <v>2.02050108815169</v>
+        <v>0.962288269539246</v>
       </c>
       <c r="H41">
         <v>0.000889025693029149</v>
@@ -1451,19 +1451,19 @@
         <v>8.81212944512591</v>
       </c>
       <c r="C42">
-        <v>0.475413593545809</v>
+        <v>0.229507125559628</v>
       </c>
       <c r="D42">
-        <v>0.317088898010447</v>
+        <v>0.151125561792511</v>
       </c>
       <c r="E42">
-        <v>0.177042855110674</v>
+        <v>0.0848496676121579</v>
       </c>
       <c r="F42">
-        <v>0.437269330622023</v>
+        <v>0.206096828446789</v>
       </c>
       <c r="G42">
-        <v>1.98464555358856</v>
+        <v>0.9386150046665051</v>
       </c>
       <c r="H42">
         <v>-0.000429101671137084</v>
@@ -1477,19 +1477,19 @@
         <v>8.834905682138411</v>
       </c>
       <c r="C43">
-        <v>0.483077479290893</v>
+        <v>0.228615321700829</v>
       </c>
       <c r="D43">
-        <v>0.301390806525086</v>
+        <v>0.142135559869047</v>
       </c>
       <c r="E43">
-        <v>0.161028431350712</v>
+        <v>0.07600226649995689</v>
       </c>
       <c r="F43">
-        <v>0.423328346856807</v>
+        <v>0.19834807023822</v>
       </c>
       <c r="G43">
-        <v>2.00560862223213</v>
+        <v>0.946896415654176</v>
       </c>
       <c r="H43">
         <v>0.00244713473776871</v>
@@ -1503,19 +1503,19 @@
         <v>8.835253787739809</v>
       </c>
       <c r="C44">
-        <v>0.461224887624452</v>
+        <v>0.213508117572952</v>
       </c>
       <c r="D44">
-        <v>0.304576335609349</v>
+        <v>0.141468008185384</v>
       </c>
       <c r="E44">
-        <v>0.157671860504258</v>
+        <v>0.0731631195694985</v>
       </c>
       <c r="F44">
-        <v>0.436211668256995</v>
+        <v>0.20226410091922</v>
       </c>
       <c r="G44">
-        <v>2.02383538647649</v>
+        <v>0.967523580086272</v>
       </c>
       <c r="H44">
         <v>-0.000442077792691343</v>
@@ -1529,19 +1529,19 @@
         <v>8.84393501851889</v>
       </c>
       <c r="C45">
-        <v>0.448501638593707</v>
+        <v>0.205029958213845</v>
       </c>
       <c r="D45">
-        <v>0.310098752598882</v>
+        <v>0.143049450370163</v>
       </c>
       <c r="E45">
-        <v>0.141647065682594</v>
+        <v>0.06519915090872989</v>
       </c>
       <c r="F45">
-        <v>0.433984363007685</v>
+        <v>0.20294967582539</v>
       </c>
       <c r="G45">
-        <v>2.01972088872759</v>
+        <v>0.950121809092094</v>
       </c>
       <c r="H45">
         <v>0.00137024093489347</v>
@@ -1555,19 +1555,19 @@
         <v>8.870706466983711</v>
       </c>
       <c r="C46">
-        <v>0.475991994865944</v>
+        <v>0.219840541925912</v>
       </c>
       <c r="D46">
-        <v>0.307426636814227</v>
+        <v>0.140789586392976</v>
       </c>
       <c r="E46">
-        <v>0.157853332803786</v>
+        <v>0.07245709092697381</v>
       </c>
       <c r="F46">
-        <v>0.430138357325376</v>
+        <v>0.195985882383963</v>
       </c>
       <c r="G46">
-        <v>2.07114890302257</v>
+        <v>0.935675540873904</v>
       </c>
       <c r="H46">
         <v>0.00333921835046964</v>
@@ -1581,19 +1581,19 @@
         <v>8.858237682504409</v>
       </c>
       <c r="C47">
-        <v>0.48426991955296</v>
+        <v>0.220286918956082</v>
       </c>
       <c r="D47">
-        <v>0.321883648424823</v>
+        <v>0.146272806678863</v>
       </c>
       <c r="E47">
-        <v>0.172300443113263</v>
+        <v>0.07767959172688151</v>
       </c>
       <c r="F47">
-        <v>0.408064573658762</v>
+        <v>0.183565685928928</v>
       </c>
       <c r="G47">
-        <v>2.11090232657412</v>
+        <v>0.960891306354613</v>
       </c>
       <c r="H47">
         <v>-0.00158500008772381</v>
@@ -1607,19 +1607,19 @@
         <v>8.85525365460728</v>
       </c>
       <c r="C48">
-        <v>0.514024577705876</v>
+        <v>0.232052534231168</v>
       </c>
       <c r="D48">
-        <v>0.330696848777214</v>
+        <v>0.149388857588476</v>
       </c>
       <c r="E48">
-        <v>0.184139076526414</v>
+        <v>0.08348662476775701</v>
       </c>
       <c r="F48">
-        <v>0.420546406115943</v>
+        <v>0.189613998387636</v>
       </c>
       <c r="G48">
-        <v>2.1793723290853</v>
+        <v>0.986499893782007</v>
       </c>
       <c r="H48">
         <v>-0.000907975852801822</v>
@@ -1633,19 +1633,19 @@
         <v>8.87040754189087</v>
       </c>
       <c r="C49">
-        <v>0.505766322281036</v>
+        <v>0.219944112359848</v>
       </c>
       <c r="D49">
-        <v>0.319496677870667</v>
+        <v>0.139429281475508</v>
       </c>
       <c r="E49">
-        <v>0.184444791529911</v>
+        <v>0.0810670195584904</v>
       </c>
       <c r="F49">
-        <v>0.416690420711297</v>
+        <v>0.184013368310876</v>
       </c>
       <c r="G49">
-        <v>2.27055235834592</v>
+        <v>0.994709781125692</v>
       </c>
       <c r="H49">
         <v>0.00219127714427254</v>
@@ -1659,19 +1659,19 @@
         <v>8.882978036972821</v>
       </c>
       <c r="C50">
-        <v>0.486507993293526</v>
+        <v>0.217513016004158</v>
       </c>
       <c r="D50">
-        <v>0.333993952523285</v>
+        <v>0.147693499762127</v>
       </c>
       <c r="E50">
-        <v>0.176014544003456</v>
+        <v>0.0783263805891883</v>
       </c>
       <c r="F50">
-        <v>0.406030597710603</v>
+        <v>0.180699357924043</v>
       </c>
       <c r="G50">
-        <v>2.20997570592569</v>
+        <v>0.986169678573866</v>
       </c>
       <c r="H50">
         <v>0.0017693239239472</v>
@@ -1685,19 +1685,19 @@
         <v>8.792653325256991</v>
       </c>
       <c r="C51">
-        <v>0.472431178684226</v>
+        <v>0.206952378352045</v>
       </c>
       <c r="D51">
-        <v>0.316544142584326</v>
+        <v>0.139894400754124</v>
       </c>
       <c r="E51">
-        <v>0.133021837127642</v>
+        <v>0.0574107419821615</v>
       </c>
       <c r="F51">
-        <v>0.38409195449479</v>
+        <v>0.166368119199766</v>
       </c>
       <c r="G51">
-        <v>2.16222386394211</v>
+        <v>0.94937756821602</v>
       </c>
       <c r="H51">
         <v>-0.0103664784564176</v>
@@ -1711,19 +1711,19 @@
         <v>8.79648481662684</v>
       </c>
       <c r="C52">
-        <v>0.557101411739551</v>
+        <v>0.242196932594818</v>
       </c>
       <c r="D52">
-        <v>0.360766187207709</v>
+        <v>0.156770472209889</v>
       </c>
       <c r="E52">
-        <v>0.197022502781736</v>
+        <v>0.0861257919854555</v>
       </c>
       <c r="F52">
-        <v>0.324216518089903</v>
+        <v>0.140693783478694</v>
       </c>
       <c r="G52">
-        <v>2.12288058244717</v>
+        <v>0.913108134087899</v>
       </c>
       <c r="H52">
         <v>-0.000204180643971965</v>
@@ -1737,19 +1737,19 @@
         <v>8.78834877796282</v>
       </c>
       <c r="C53">
-        <v>0.524180537968682</v>
+        <v>0.227608012054883</v>
       </c>
       <c r="D53">
-        <v>0.3407089828471</v>
+        <v>0.14782705892715</v>
       </c>
       <c r="E53">
-        <v>0.18074161351608</v>
+        <v>0.0794486293321116</v>
       </c>
       <c r="F53">
-        <v>0.239359871461945</v>
+        <v>0.104562486846763</v>
       </c>
       <c r="G53">
-        <v>2.09441452181896</v>
+        <v>0.902868914834963</v>
       </c>
       <c r="H53">
         <v>-0.000379960900270474</v>
@@ -1763,19 +1763,19 @@
         <v>8.7714894829336</v>
       </c>
       <c r="C54">
-        <v>0.473416958587346</v>
+        <v>0.202434625589153</v>
       </c>
       <c r="D54">
-        <v>0.313317438027379</v>
+        <v>0.132859314066759</v>
       </c>
       <c r="E54">
-        <v>0.153698430705447</v>
+        <v>0.0653751897996506</v>
       </c>
       <c r="F54">
-        <v>0.214861846919768</v>
+        <v>0.0926204943662453</v>
       </c>
       <c r="G54">
-        <v>2.18789931159761</v>
+        <v>0.947444710272024</v>
       </c>
       <c r="H54">
         <v>-0.00153211930287594</v>
@@ -1789,19 +1789,19 @@
         <v>8.755141095526881</v>
       </c>
       <c r="C55">
-        <v>0.543537864773492</v>
+        <v>0.225613934833261</v>
       </c>
       <c r="D55">
-        <v>0.378286056150203</v>
+        <v>0.15858145624446</v>
       </c>
       <c r="E55">
-        <v>0.172185604067207</v>
+        <v>0.0704768159618403</v>
       </c>
       <c r="F55">
-        <v>0.229002235484206</v>
+        <v>0.0934948597350185</v>
       </c>
       <c r="G55">
-        <v>2.24893433715429</v>
+        <v>0.933173624376929</v>
       </c>
       <c r="H55">
         <v>-0.00209420726729049</v>
@@ -1815,19 +1815,19 @@
         <v>8.76661282026477</v>
       </c>
       <c r="C56">
-        <v>0.498037433856895</v>
+        <v>0.203978329777249</v>
       </c>
       <c r="D56">
-        <v>0.362349912107277</v>
+        <v>0.148252722901208</v>
       </c>
       <c r="E56">
-        <v>0.136507246487273</v>
+        <v>0.0562577992182161</v>
       </c>
       <c r="F56">
-        <v>0.248566519026996</v>
+        <v>0.102064148081955</v>
       </c>
       <c r="G56">
-        <v>2.31697260131397</v>
+        <v>0.933531327965426</v>
       </c>
       <c r="H56">
         <v>0.00059352007037387</v>
@@ -1841,19 +1841,19 @@
         <v>8.791135485758201</v>
       </c>
       <c r="C57">
-        <v>0.598563887614839</v>
+        <v>0.246053614530774</v>
       </c>
       <c r="D57">
-        <v>0.401460096576668</v>
+        <v>0.164586096550687</v>
       </c>
       <c r="E57">
-        <v>0.194825788491998</v>
+        <v>0.08101806447520971</v>
       </c>
       <c r="F57">
-        <v>0.215075857826276</v>
+        <v>0.0887392188684606</v>
       </c>
       <c r="G57">
-        <v>2.31731128362822</v>
+        <v>0.935485904329463</v>
       </c>
       <c r="H57">
         <v>0.0034335979348088</v>
@@ -1867,19 +1867,19 @@
         <v>8.78072905221733</v>
       </c>
       <c r="C58">
-        <v>0.540749840341702</v>
+        <v>0.217827231977841</v>
       </c>
       <c r="D58">
-        <v>0.35665151348413</v>
+        <v>0.14249677335753</v>
       </c>
       <c r="E58">
-        <v>0.178147834448432</v>
+        <v>0.0711442656599799</v>
       </c>
       <c r="F58">
-        <v>0.256129064109564</v>
+        <v>0.103783896059141</v>
       </c>
       <c r="G58">
-        <v>2.35100638407576</v>
+        <v>0.955718389488732</v>
       </c>
       <c r="H58">
         <v>-0.000767500937266552</v>
@@ -1893,19 +1893,19 @@
         <v>8.67168594402763</v>
       </c>
       <c r="C59">
-        <v>0.663912697865508</v>
+        <v>0.263098664712654</v>
       </c>
       <c r="D59">
-        <v>0.451874379510749</v>
+        <v>0.181482323272575</v>
       </c>
       <c r="E59">
-        <v>0.217779238226844</v>
+        <v>0.0851896092801549</v>
       </c>
       <c r="F59">
-        <v>0.215121770494401</v>
+        <v>0.0835342652767483</v>
       </c>
       <c r="G59">
-        <v>1.99590943447271</v>
+        <v>0.792314248332276</v>
       </c>
       <c r="H59">
         <v>-0.0126319704832886</v>
@@ -1919,19 +1919,19 @@
         <v>8.742640728577269</v>
       </c>
       <c r="C60">
-        <v>0.538855796314561</v>
+        <v>0.209722492979246</v>
       </c>
       <c r="D60">
-        <v>0.351503681527324</v>
+        <v>0.136073072065954</v>
       </c>
       <c r="E60">
-        <v>0.191257600304773</v>
+        <v>0.07526954593633189</v>
       </c>
       <c r="F60">
-        <v>0.242998478218256</v>
+        <v>0.0948865449405198</v>
       </c>
       <c r="G60">
-        <v>2.24815494250522</v>
+        <v>0.8555238022509331</v>
       </c>
       <c r="H60">
         <v>0.00738431867896544</v>
@@ -1945,19 +1945,19 @@
         <v>8.756582232395809</v>
       </c>
       <c r="C61">
-        <v>0.632949477489733</v>
+        <v>0.246337139117757</v>
       </c>
       <c r="D61">
-        <v>0.384076968551922</v>
+        <v>0.149133393466568</v>
       </c>
       <c r="E61">
-        <v>0.241474585230015</v>
+        <v>0.0949435044943807</v>
       </c>
       <c r="F61">
-        <v>0.27730112755105</v>
+        <v>0.108612555703433</v>
       </c>
       <c r="G61">
-        <v>2.39677624323308</v>
+        <v>0.9180938855069</v>
       </c>
       <c r="H61">
         <v>0.00225439688647535</v>
@@ -1971,19 +1971,19 @@
         <v>8.802760105660219</v>
       </c>
       <c r="C62">
-        <v>0.665562788671124</v>
+        <v>0.259700353967165</v>
       </c>
       <c r="D62">
-        <v>0.407154006522615</v>
+        <v>0.157895433039786</v>
       </c>
       <c r="E62">
-        <v>0.254262489314381</v>
+        <v>0.0977761642028471</v>
       </c>
       <c r="F62">
-        <v>0.30549577596726</v>
+        <v>0.119644111775782</v>
       </c>
       <c r="G62">
-        <v>2.5257152317587</v>
+        <v>1.00236624610887</v>
       </c>
       <c r="H62">
         <v>0.00568253296996341</v>
@@ -1997,19 +1997,19 @@
         <v>8.82325079853438</v>
       </c>
       <c r="C63">
-        <v>0.571094995644207</v>
+        <v>0.220090151094883</v>
       </c>
       <c r="D63">
-        <v>0.360235903649385</v>
+        <v>0.140878444816711</v>
       </c>
       <c r="E63">
-        <v>0.218505838946855</v>
+        <v>0.0834074992007561</v>
       </c>
       <c r="F63">
-        <v>0.375668557908475</v>
+        <v>0.14295108222152</v>
       </c>
       <c r="G63">
-        <v>2.7714046339763</v>
+        <v>1.0777316670724</v>
       </c>
       <c r="H63">
         <v>0.00212939702353748</v>
@@ -2023,19 +2023,19 @@
         <v>8.825560163259251</v>
       </c>
       <c r="C64">
-        <v>0.7156559079952281</v>
+        <v>0.273758626309158</v>
       </c>
       <c r="D64">
-        <v>0.404268162751718</v>
+        <v>0.152973376930222</v>
       </c>
       <c r="E64">
-        <v>0.314632830075789</v>
+        <v>0.122153175783674</v>
       </c>
       <c r="F64">
-        <v>0.34575088659003</v>
+        <v>0.132240765676986</v>
       </c>
       <c r="G64">
-        <v>2.9376024945901</v>
+        <v>1.09540670496113</v>
       </c>
       <c r="H64">
         <v>-0.00061268673540331</v>
@@ -2049,19 +2049,19 @@
         <v>8.839130259648121</v>
       </c>
       <c r="C65">
-        <v>0.725600198125741</v>
+        <v>0.266083431775412</v>
       </c>
       <c r="D65">
-        <v>0.434224451903409</v>
+        <v>0.159269990023811</v>
       </c>
       <c r="E65">
-        <v>0.284080931664972</v>
+        <v>0.105037188029563</v>
       </c>
       <c r="F65">
-        <v>0.331124489185251</v>
+        <v>0.122803022745328</v>
       </c>
       <c r="G65">
-        <v>2.98056075263344</v>
+        <v>1.12714414463554</v>
       </c>
       <c r="H65">
         <v>0.00220374496707046</v>
@@ -2075,19 +2075,19 @@
         <v>8.835074234374011</v>
       </c>
       <c r="C66">
-        <v>0.655263125628611</v>
+        <v>0.239628429591102</v>
       </c>
       <c r="D66">
-        <v>0.401278275969976</v>
+        <v>0.14614646088389</v>
       </c>
       <c r="E66">
-        <v>0.249392406699667</v>
+        <v>0.0894752166092892</v>
       </c>
       <c r="F66">
-        <v>0.353247307350716</v>
+        <v>0.128240617776561</v>
       </c>
       <c r="G66">
-        <v>3.2210968382022</v>
+        <v>1.14853062323984</v>
       </c>
       <c r="H66">
         <v>-1.45889350077746e-005</v>
@@ -2101,19 +2101,19 @@
         <v>8.853292696421461</v>
       </c>
       <c r="C67">
-        <v>0.662843682910881</v>
+        <v>0.23331755412521</v>
       </c>
       <c r="D67">
-        <v>0.396584610127525</v>
+        <v>0.141560585108881</v>
       </c>
       <c r="E67">
-        <v>0.275229021875779</v>
+        <v>0.0962088581140499</v>
       </c>
       <c r="F67">
-        <v>0.36388013139424</v>
+        <v>0.127000371853798</v>
       </c>
       <c r="G67">
-        <v>3.28609250873458</v>
+        <v>1.16788777589421</v>
       </c>
       <c r="H67">
         <v>0.00189210180922063</v>
@@ -2127,19 +2127,19 @@
         <v>8.844188972405069</v>
       </c>
       <c r="C68">
-        <v>0.669953280035047</v>
+        <v>0.232559376442025</v>
       </c>
       <c r="D68">
-        <v>0.40180676673716</v>
+        <v>0.13767386624917</v>
       </c>
       <c r="E68">
-        <v>0.269529488824463</v>
+        <v>0.09514048676938069</v>
       </c>
       <c r="F68">
-        <v>0.372213056848623</v>
+        <v>0.12883492386752</v>
       </c>
       <c r="G68">
-        <v>3.35934139856525</v>
+        <v>1.18413542327983</v>
       </c>
       <c r="H68">
         <v>-0.00193051893808106</v>
@@ -2153,19 +2153,19 @@
         <v>8.848530688410939</v>
       </c>
       <c r="C69">
-        <v>0.60733760856289</v>
+        <v>0.203182956963682</v>
       </c>
       <c r="D69">
-        <v>0.379397488538984</v>
+        <v>0.12711097212492</v>
       </c>
       <c r="E69">
-        <v>0.226652924806581</v>
+        <v>0.07651466478250631</v>
       </c>
       <c r="F69">
-        <v>0.356302063454589</v>
+        <v>0.121780989977326</v>
       </c>
       <c r="G69">
-        <v>3.37385856086166</v>
+        <v>1.13987360011427</v>
       </c>
       <c r="H69">
         <v>0.00115643956106339</v>
